--- a/sriramModel-nelson-atypical-patientID_27-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_27-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.569473489951504</v>
+        <v>9.498816230770201</v>
       </c>
       <c r="C2">
-        <v>9.498102775326748</v>
+        <v>9.496940763552765</v>
       </c>
       <c r="D2">
-        <v>9.497158934583323</v>
+        <v>9.573209909534606</v>
       </c>
       <c r="E2">
-        <v>9.493308609347416</v>
+        <v>9.498758130834648</v>
       </c>
       <c r="F2">
-        <v>9.498965928005969</v>
+        <v>9.498980841679929</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.539269762382252</v>
+        <v>9.401834448847264</v>
       </c>
       <c r="C3">
-        <v>9.403957390505706</v>
+        <v>9.399000787973458</v>
       </c>
       <c r="D3">
-        <v>9.399413214494906</v>
+        <v>9.546585778207064</v>
       </c>
       <c r="E3">
-        <v>9.391614905433736</v>
+        <v>9.402137734484404</v>
       </c>
       <c r="F3">
-        <v>9.404227874989859</v>
+        <v>9.401970903284569</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.509403453132002</v>
+        <v>9.308991093072683</v>
       </c>
       <c r="C4">
-        <v>9.317183600933715</v>
+        <v>9.306057637989653</v>
       </c>
       <c r="D4">
-        <v>9.3066124111424</v>
+        <v>9.520128680750137</v>
       </c>
       <c r="E4">
-        <v>9.294865943585933</v>
+        <v>9.310031870738619</v>
       </c>
       <c r="F4">
-        <v>9.31550822288256</v>
+        <v>9.30891995282159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.479886301768055</v>
+        <v>9.220224231517268</v>
       </c>
       <c r="C5">
-        <v>9.237419686710346</v>
+        <v>9.217992538987918</v>
       </c>
       <c r="D5">
-        <v>9.218613162488536</v>
+        <v>9.493839655447804</v>
       </c>
       <c r="E5">
-        <v>9.20300800137086</v>
+        <v>9.222337754633857</v>
       </c>
       <c r="F5">
-        <v>9.232542627042346</v>
+        <v>9.219779746910113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.450727331858989</v>
+        <v>9.135473651525471</v>
       </c>
       <c r="C6">
-        <v>9.164320985966171</v>
+        <v>9.134689653825539</v>
       </c>
       <c r="D6">
-        <v>9.135278296816281</v>
+        <v>9.467719711194501</v>
       </c>
       <c r="E6">
-        <v>9.115986478338458</v>
+        <v>9.13895645328401</v>
       </c>
       <c r="F6">
-        <v>9.155079185673314</v>
+        <v>9.134503832458579</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.421933141253653</v>
+        <v>9.054680820768841</v>
       </c>
       <c r="C7">
-        <v>9.097559044441201</v>
+        <v>9.056035808161088</v>
       </c>
       <c r="D7">
-        <v>9.056476717213016</v>
+        <v>9.441769815254593</v>
       </c>
       <c r="E7">
-        <v>9.033745767819154</v>
+        <v>9.059792760066513</v>
       </c>
       <c r="F7">
-        <v>9.082877677937466</v>
+        <v>9.053047605093358</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.393508113809977</v>
+        <v>8.977788850645467</v>
       </c>
       <c r="C8">
-        <v>9.036820963825031</v>
+        <v>8.981920679699048</v>
       </c>
       <c r="D8">
-        <v>8.982082973561516</v>
+        <v>9.415990895314421</v>
       </c>
       <c r="E8">
-        <v>8.956229153076702</v>
+        <v>8.984754977970711</v>
       </c>
       <c r="F8">
-        <v>9.015709089628627</v>
+        <v>8.975368207109105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.365454643190194</v>
+        <v>8.90474246533671</v>
       </c>
       <c r="C9">
-        <v>8.981808351593918</v>
+        <v>8.912236629204671</v>
       </c>
       <c r="D9">
-        <v>8.911976940207966</v>
+        <v>9.390383840684688</v>
       </c>
       <c r="E9">
-        <v>8.883378679467974</v>
+        <v>8.913754786804589</v>
       </c>
       <c r="F9">
-        <v>8.953355118490276</v>
+        <v>8.901424395007432</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.337773357344018</v>
+        <v>8.83548795583309</v>
       </c>
       <c r="C10">
-        <v>8.932236568279846</v>
+        <v>8.846878519257277</v>
       </c>
       <c r="D10">
-        <v>8.846043556898477</v>
+        <v>9.364949505276769</v>
       </c>
       <c r="E10">
-        <v>8.815135015943424</v>
+        <v>8.846707099090557</v>
       </c>
       <c r="F10">
-        <v>8.895607664057691</v>
+        <v>8.831176476545192</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.310463324520333</v>
+        <v>8.769973132822198</v>
       </c>
       <c r="C11">
-        <v>8.887834011375906</v>
+        <v>8.785743629280246</v>
       </c>
       <c r="D11">
-        <v>8.784172565954336</v>
+        <v>9.339688706469627</v>
       </c>
       <c r="E11">
-        <v>8.751437339691918</v>
+        <v>8.783529935274302</v>
       </c>
       <c r="F11">
-        <v>8.84226826849568</v>
+        <v>8.764586246866836</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.283522242866026</v>
+        <v>8.708147270326604</v>
       </c>
       <c r="C12">
-        <v>8.848341403774956</v>
+        <v>8.728731541074584</v>
       </c>
       <c r="D12">
-        <v>8.726258260056822</v>
+        <v>9.314602229445171</v>
       </c>
       <c r="E12">
-        <v>8.69222321199341</v>
+        <v>8.72414425930514</v>
       </c>
       <c r="F12">
-        <v>8.793147639938214</v>
+        <v>8.701616905303442</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.256946613885292</v>
+        <v>8.649961056687571</v>
       </c>
       <c r="C13">
-        <v>8.813510992451006</v>
+        <v>8.67574406738902</v>
       </c>
       <c r="D13">
-        <v>8.672199229382011</v>
+        <v>9.289690814865287</v>
       </c>
       <c r="E13">
-        <v>8.637428425041566</v>
+        <v>8.668473834040354</v>
       </c>
       <c r="F13">
-        <v>8.748065232612065</v>
+        <v>8.642232964358405</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.230731924011524</v>
+        <v>8.595366535568713</v>
       </c>
       <c r="C14">
-        <v>8.783105958562041</v>
+        <v>8.626685163354455</v>
       </c>
       <c r="D14">
-        <v>8.621898168915015</v>
+        <v>9.264955162359383</v>
       </c>
       <c r="E14">
-        <v>8.586986833047144</v>
+        <v>8.616445079693442</v>
       </c>
       <c r="F14">
-        <v>8.706848845085862</v>
+        <v>8.586400162014632</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.204872808957198</v>
+        <v>8.544317036862193</v>
       </c>
       <c r="C15">
-        <v>8.756899784553532</v>
+        <v>8.581460809301376</v>
       </c>
       <c r="D15">
-        <v>8.575261637906669</v>
+        <v>9.240395932129204</v>
       </c>
       <c r="E15">
-        <v>8.54083022264461</v>
+        <v>8.567987052046123</v>
       </c>
       <c r="F15">
-        <v>8.669334205196554</v>
+        <v>8.534085373028484</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.179363179011492</v>
+        <v>8.496767105412209</v>
       </c>
       <c r="C16">
-        <v>8.734675580166799</v>
+        <v>8.539978797828621</v>
       </c>
       <c r="D16">
-        <v>8.532199665698462</v>
+        <v>9.21601374336025</v>
       </c>
       <c r="E16">
-        <v>8.498888177056038</v>
+        <v>8.523031122903022</v>
       </c>
       <c r="F16">
-        <v>8.63536457475937</v>
+        <v>8.485256514039495</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.154196338517446</v>
+        <v>8.452672433577451</v>
       </c>
       <c r="C17">
-        <v>8.716225457902373</v>
+        <v>8.502148654608026</v>
       </c>
       <c r="D17">
-        <v>8.492625657961364</v>
+        <v>9.191809173658575</v>
       </c>
       <c r="E17">
-        <v>8.4610879244118</v>
+        <v>8.481510946650328</v>
       </c>
       <c r="F17">
-        <v>8.604790362051354</v>
+        <v>8.439882440246375</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.129365104487462</v>
+        <v>8.411989785626844</v>
       </c>
       <c r="C18">
-        <v>8.701349808207985</v>
+        <v>8.467881579302032</v>
       </c>
       <c r="D18">
-        <v>8.456456152805691</v>
+        <v>9.167782757935427</v>
       </c>
       <c r="E18">
-        <v>8.427354183183114</v>
+        <v>8.443362290277401</v>
       </c>
       <c r="F18">
-        <v>8.577468756850609</v>
+        <v>8.39793283278366</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.104861910641354</v>
+        <v>8.374676913330925</v>
       </c>
       <c r="C19">
-        <v>8.689856787089376</v>
+        <v>8.437090334792067</v>
       </c>
       <c r="D19">
-        <v>8.423610633717811</v>
+        <v>9.143934986678861</v>
       </c>
       <c r="E19">
-        <v>8.397608999647238</v>
+        <v>8.408522883790045</v>
       </c>
       <c r="F19">
-        <v>8.553263385982811</v>
+        <v>8.359378075634874</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.080678895627315</v>
+        <v>8.340692464429052</v>
       </c>
       <c r="C20">
-        <v>8.681561841497709</v>
+        <v>8.409689098778834</v>
       </c>
       <c r="D20">
-        <v>8.394011335444004</v>
+        <v>9.120266304452544</v>
       </c>
       <c r="E20">
-        <v>8.371771588124972</v>
+        <v>8.376932317121799</v>
       </c>
       <c r="F20">
-        <v>8.532044004371247</v>
+        <v>8.324189120166883</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.056807978352127</v>
+        <v>8.30999588519602</v>
       </c>
       <c r="C21">
-        <v>8.676287136584815</v>
+        <v>8.385593326006823</v>
       </c>
       <c r="D21">
-        <v>8.367583024824809</v>
+        <v>9.096777108549087</v>
       </c>
       <c r="E21">
-        <v>8.349758167734601</v>
+        <v>8.348531882772999</v>
       </c>
       <c r="F21">
-        <v>8.513686118688621</v>
+        <v>8.292337334896919</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.033240926797207</v>
+        <v>8.282547314870163</v>
       </c>
       <c r="C22">
-        <v>8.67386101792342</v>
+        <v>8.364719629181566</v>
       </c>
       <c r="D22">
-        <v>8.344252792778141</v>
+        <v>9.073467747716851</v>
       </c>
       <c r="E22">
-        <v>8.331481795502809</v>
+        <v>8.323264442094551</v>
       </c>
       <c r="F22">
-        <v>8.498070768354859</v>
+        <v>8.263794337921041</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.009969418580747</v>
+        <v>8.258307469110925</v>
       </c>
       <c r="C23">
-        <v>8.674117475289878</v>
+        <v>8.346985662633235</v>
       </c>
       <c r="D23">
-        <v>8.323949836721409</v>
+        <v>9.05033851998968</v>
       </c>
       <c r="E23">
-        <v>8.316852191863665</v>
+        <v>8.301074242386948</v>
       </c>
       <c r="F23">
-        <v>8.485084136355958</v>
+        <v>8.238531809318543</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.986985091926805</v>
+        <v>8.23723751068191</v>
       </c>
       <c r="C24">
-        <v>8.67689562061765</v>
+        <v>8.332309991479303</v>
       </c>
       <c r="D24">
-        <v>8.306605260273445</v>
+        <v>9.027389671108232</v>
       </c>
       <c r="E24">
-        <v>8.30577555853055</v>
+        <v>8.281906772194102</v>
       </c>
       <c r="F24">
-        <v>8.474617326168126</v>
+        <v>8.216521280679096</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.9642795890282</v>
+        <v>8.219298905965873</v>
       </c>
       <c r="C25">
-        <v>8.682039218256493</v>
+        <v>8.3206119491525</v>
       </c>
       <c r="D25">
-        <v>8.292151873902164</v>
+        <v>9.004621392339731</v>
       </c>
       <c r="E25">
-        <v>8.298154390987028</v>
+        <v>8.265708561019652</v>
       </c>
       <c r="F25">
-        <v>8.466566040340888</v>
+        <v>8.197733898687042</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.94184459332015</v>
+        <v>8.204453265150986</v>
       </c>
       <c r="C26">
-        <v>8.68939622550673</v>
+        <v>8.311811492592437</v>
       </c>
       <c r="D26">
-        <v>8.280523981272534</v>
+        <v>8.982033818638255</v>
       </c>
       <c r="E26">
-        <v>8.293887284397281</v>
+        <v>8.252427003302492</v>
       </c>
       <c r="F26">
-        <v>8.460830302881474</v>
+        <v>8.18214015949242</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.919671861215718</v>
+        <v>8.192662162996259</v>
       </c>
       <c r="C27">
-        <v>8.698818347114067</v>
+        <v>8.305829056222805</v>
       </c>
       <c r="D27">
-        <v>8.271657168837216</v>
+        <v>8.959627026133891</v>
       </c>
       <c r="E27">
-        <v>8.292868731744095</v>
+        <v>8.242010163338433</v>
       </c>
       <c r="F27">
-        <v>8.457314212052042</v>
+        <v>8.169709610437392</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.897753248639425</v>
+        <v>8.183886936652984</v>
       </c>
       <c r="C28">
-        <v>8.710160613464131</v>
+        <v>8.302585399870798</v>
       </c>
       <c r="D28">
-        <v>8.265488068676683</v>
+        <v>8.937401029164096</v>
       </c>
       <c r="E28">
-        <v>8.29498891390887</v>
+        <v>8.234406553252764</v>
       </c>
       <c r="F28">
-        <v>8.455925635935166</v>
+        <v>8.160410533786902</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.876080732913941</v>
+        <v>8.178088456820303</v>
       </c>
       <c r="C29">
-        <v>8.723280979128008</v>
+        <v>8.302001447013797</v>
       </c>
       <c r="D29">
-        <v>8.261954114863743</v>
+        <v>8.915355777686186</v>
       </c>
       <c r="E29">
-        <v>8.300133482159337</v>
+        <v>8.229564882923807</v>
       </c>
       <c r="F29">
-        <v>8.456575984344155</v>
+        <v>8.154209567888159</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.854646430671455</v>
+        <v>8.17522686808184</v>
       </c>
       <c r="C30">
-        <v>8.738039951158372</v>
+        <v>8.303998113156302</v>
       </c>
       <c r="D30">
-        <v>8.260993288513673</v>
+        <v>8.893491153914123</v>
       </c>
       <c r="E30">
-        <v>8.308183334128065</v>
+        <v>8.227433816929475</v>
       </c>
       <c r="F30">
-        <v>8.459179918705614</v>
+        <v>8.151071210126343</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.833442612351528</v>
+        <v>8.175261293568749</v>
       </c>
       <c r="C31">
-        <v>8.754300257555121</v>
+        <v>8.308496124921325</v>
       </c>
       <c r="D31">
-        <v>8.262543833997418</v>
+        <v>8.871806969973104</v>
       </c>
       <c r="E31">
-        <v>8.31901438614385</v>
+        <v>8.227961671070124</v>
       </c>
       <c r="F31">
-        <v>8.463655099873529</v>
+        <v>8.15095744806451</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.812461713683472</v>
+        <v>8.178149498372337</v>
       </c>
       <c r="C32">
-        <v>8.7719265503965</v>
+        <v>8.315415828955038</v>
       </c>
       <c r="D32">
-        <v>8.266543948724431</v>
+        <v>8.850302963331133</v>
       </c>
       <c r="E32">
-        <v>8.332497344916556</v>
+        <v>8.231096075153474</v>
       </c>
       <c r="F32">
-        <v>8.469921913206182</v>
+        <v>8.153827229843575</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.791696344688534</v>
+        <v>8.183847504174745</v>
       </c>
       <c r="C33">
-        <v>8.790785151169427</v>
+        <v>8.324676988547573</v>
       </c>
       <c r="D33">
-        <v>8.272931445603994</v>
+        <v>8.828978792960013</v>
       </c>
       <c r="E33">
-        <v>8.34849748199777</v>
+        <v>8.236783641032471</v>
       </c>
       <c r="F33">
-        <v>8.477903200948749</v>
+        <v>8.159635859393342</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8.771139296225245</v>
+        <v>8.192309151482471</v>
       </c>
       <c r="C34">
-        <v>8.810743860373494</v>
+        <v>8.336198565947745</v>
       </c>
       <c r="D34">
-        <v>8.281643339640736</v>
+        <v>8.807834035269305</v>
       </c>
       <c r="E34">
-        <v>8.366874412025632</v>
+        <v>8.244969562695607</v>
       </c>
       <c r="F34">
-        <v>8.487523973668798</v>
+        <v>8.168334426219687</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.750783544723822</v>
+        <v>8.20348560597745</v>
       </c>
       <c r="C35">
-        <v>8.831671805480633</v>
+        <v>8.349898488869762</v>
       </c>
       <c r="D35">
-        <v>8.292615406249997</v>
+        <v>8.786868178977906</v>
       </c>
       <c r="E35">
-        <v>8.387481901508647</v>
+        <v>8.255597145692397</v>
       </c>
       <c r="F35">
-        <v>8.498711124482334</v>
+        <v>8.179869206514226</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.730622255074422</v>
+        <v>8.217324785062681</v>
       </c>
       <c r="C36">
-        <v>8.853439358698367</v>
+        <v>8.36569339978734</v>
       </c>
       <c r="D36">
-        <v>8.305781667903274</v>
+        <v>8.766080622137606</v>
       </c>
       <c r="E36">
-        <v>8.41016770685842</v>
+        <v>8.268607346212033</v>
       </c>
       <c r="F36">
-        <v>8.511393134132309</v>
+        <v>8.194180759599922</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.710648782335342</v>
+        <v>8.233770712630337</v>
       </c>
       <c r="C37">
-        <v>8.875918114187725</v>
+        <v>8.383498386304016</v>
       </c>
       <c r="D37">
-        <v>8.321073785945481</v>
+        <v>8.74547066440943</v>
       </c>
       <c r="E37">
-        <v>8.434773460125799</v>
+        <v>8.28393825129614</v>
       </c>
       <c r="F37">
-        <v>8.525499716865763</v>
+        <v>8.211203223777416</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.690856672369341</v>
+        <v>8.252762794237599</v>
       </c>
       <c r="C38">
-        <v>8.898980932766253</v>
+        <v>8.403226690642729</v>
       </c>
       <c r="D38">
-        <v>8.338420342406883</v>
+        <v>8.725037502193262</v>
       </c>
       <c r="E38">
-        <v>8.461134619865589</v>
+        <v>8.301524427596116</v>
       </c>
       <c r="F38">
-        <v>8.540961558728803</v>
+        <v>8.230863605942561</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.671239662616566</v>
+        <v>8.274234997646735</v>
       </c>
       <c r="C39">
-        <v>8.922502083590828</v>
+        <v>8.424789396351272</v>
       </c>
       <c r="D39">
-        <v>8.357745999628458</v>
+        <v>8.704780222257199</v>
       </c>
       <c r="E39">
-        <v>8.489080555342898</v>
+        <v>8.321296306031238</v>
       </c>
       <c r="F39">
-        <v>8.557709864883758</v>
+        <v>8.253080926225545</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.651791678561077</v>
+        <v>8.298114941208468</v>
       </c>
       <c r="C40">
-        <v>8.946357430870696</v>
+        <v>8.448095090588675</v>
       </c>
       <c r="D40">
-        <v>8.37897051154718</v>
+        <v>8.684697795357073</v>
       </c>
       <c r="E40">
-        <v>8.518434721995963</v>
+        <v>8.34317953504355</v>
       </c>
       <c r="F40">
-        <v>8.575676000327126</v>
+        <v>8.277765338596614</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.632506832098812</v>
+        <v>8.324322895721448</v>
       </c>
       <c r="C41">
-        <v>8.970424703069366</v>
+        <v>8.473049500728374</v>
       </c>
       <c r="D41">
-        <v>8.402007517916523</v>
+        <v>8.664789070311935</v>
       </c>
       <c r="E41">
-        <v>8.549015017635394</v>
+        <v>8.367094142954688</v>
       </c>
       <c r="F41">
-        <v>8.59479105377128</v>
+        <v>8.304817328075353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.613379419125305</v>
+        <v>8.352770694922331</v>
       </c>
       <c r="C42">
-        <v>8.994583819927801</v>
+        <v>8.49955510454326</v>
       </c>
       <c r="D42">
-        <v>8.426763225238304</v>
+        <v>8.645052764219205</v>
       </c>
       <c r="E42">
-        <v>8.580634341234326</v>
+        <v>8.392953806203273</v>
       </c>
       <c r="F42">
-        <v>8.614985382283484</v>
+        <v>8.33412693262615</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.594403916397424</v>
+        <v>8.383360575573075</v>
       </c>
       <c r="C43">
-        <v>9.018717283922172</v>
+        <v>8.527510714103274</v>
       </c>
       <c r="D43">
-        <v>8.453134869659671</v>
+        <v>8.625487455565342</v>
       </c>
       <c r="E43">
-        <v>8.613101399759117</v>
+        <v>8.420665101973878</v>
       </c>
       <c r="F43">
-        <v>8.636188090560307</v>
+        <v>8.365573030391412</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.575574979072837</v>
+        <v>8.415983950011711</v>
       </c>
       <c r="C44">
-        <v>9.042710639491199</v>
+        <v>8.556811034903255</v>
       </c>
       <c r="D44">
-        <v>8.481009016169114</v>
+        <v>8.60609157527124</v>
       </c>
       <c r="E44">
-        <v>8.646221773587067</v>
+        <v>8.450126577146454</v>
       </c>
       <c r="F44">
-        <v>8.65832645846184</v>
+        <v>8.399022732964063</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.556887435717732</v>
+        <v>8.450520170263152</v>
       </c>
       <c r="C45">
-        <v>9.06645294243336</v>
+        <v>8.587346203810915</v>
       </c>
       <c r="D45">
-        <v>8.510259811600672</v>
+        <v>8.586863399704923</v>
       </c>
       <c r="E45">
-        <v>8.679799269748006</v>
+        <v>8.481228048356039</v>
       </c>
       <c r="F45">
-        <v>8.681325313953186</v>
+        <v>8.4343309374912</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.538336285184617</v>
+        <v>8.486835334289282</v>
       </c>
       <c r="C46">
-        <v>9.089837263904029</v>
+        <v>8.619001313109283</v>
       </c>
       <c r="D46">
-        <v>8.540747317915379</v>
+        <v>8.567801040593276</v>
       </c>
       <c r="E46">
-        <v>8.713637531133021</v>
+        <v>8.513849920770262</v>
       </c>
       <c r="F46">
-        <v>8.705106345868581</v>
+        <v>8.471340084753516</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.519916691706953</v>
+        <v>8.524781192320068</v>
       </c>
       <c r="C47">
-        <v>9.112761197731732</v>
+        <v>8.651655935758951</v>
       </c>
       <c r="D47">
-        <v>8.572316130824035</v>
+        <v>8.548902434723987</v>
       </c>
       <c r="E47">
-        <v>8.747541903892893</v>
+        <v>8.547862593110338</v>
       </c>
       <c r="F47">
-        <v>8.729587358541202</v>
+        <v>8.509880152118326</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.50162398099793</v>
+        <v>8.564194234079947</v>
       </c>
       <c r="C48">
-        <v>9.135127367843054</v>
+        <v>8.68518364427749</v>
       </c>
       <c r="D48">
-        <v>8.604794623595684</v>
+        <v>8.530165335524996</v>
       </c>
       <c r="E48">
-        <v>8.781321468656763</v>
+        <v>8.583126015832532</v>
       </c>
       <c r="F48">
-        <v>8.754681497210468</v>
+        <v>8.549768955540793</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.48345363589447</v>
+        <v>8.604895136582007</v>
       </c>
       <c r="C49">
-        <v>9.156843901352255</v>
+        <v>8.719451582034257</v>
       </c>
       <c r="D49">
-        <v>8.63799508398643</v>
+        <v>8.511587303006404</v>
       </c>
       <c r="E49">
-        <v>8.814791156693094</v>
+        <v>8.61948949174911</v>
       </c>
       <c r="F49">
-        <v>8.780296358121678</v>
+        <v>8.590812783341793</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.465401292007853</v>
+        <v>8.646688589911969</v>
       </c>
       <c r="C50">
-        <v>9.17782485586798</v>
+        <v>8.75432010095137</v>
       </c>
       <c r="D50">
-        <v>8.671714972986832</v>
+        <v>8.493165697966864</v>
       </c>
       <c r="E50">
-        <v>8.847773838845843</v>
+        <v>8.656791779825989</v>
       </c>
       <c r="F50">
-        <v>8.806333173056778</v>
+        <v>8.632807405477518</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.447462733318435</v>
+        <v>8.689363667565456</v>
       </c>
       <c r="C51">
-        <v>9.197990592419213</v>
+        <v>8.789642505354722</v>
       </c>
       <c r="D51">
-        <v>8.705739504092774</v>
+        <v>8.474897671894757</v>
       </c>
       <c r="E51">
-        <v>8.880102282280715</v>
+        <v>8.694861544704304</v>
       </c>
       <c r="F51">
-        <v>8.832686012619277</v>
+        <v>8.67553946034662</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.429633887931011</v>
+        <v>8.732694918385876</v>
       </c>
       <c r="C52">
-        <v>9.217268129492833</v>
+        <v>8.825264950853683</v>
       </c>
       <c r="D52">
-        <v>8.739845423584271</v>
+        <v>8.456780156028712</v>
       </c>
       <c r="E52">
-        <v>8.91162085940176</v>
+        <v>8.733518195321986</v>
       </c>
       <c r="F52">
-        <v>8.85924107295186</v>
+        <v>8.718788235816076</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.411911772057643</v>
+        <v>8.776444197780044</v>
       </c>
       <c r="C53">
-        <v>9.235606807230237</v>
+        <v>8.861026638278027</v>
       </c>
       <c r="D53">
-        <v>8.773851222097852</v>
+        <v>8.438809857162548</v>
       </c>
       <c r="E53">
-        <v>8.942211953461175</v>
+        <v>8.772573150442668</v>
       </c>
       <c r="F53">
-        <v>8.885944159656129</v>
+        <v>8.76232779600854</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.394297126812656</v>
+        <v>8.8203633207376</v>
       </c>
       <c r="C54">
-        <v>9.25301779658022</v>
+        <v>8.896760259149302</v>
       </c>
       <c r="D54">
-        <v>8.807732303473085</v>
+        <v>8.420983255995218</v>
       </c>
       <c r="E54">
-        <v>8.971857640967322</v>
+        <v>8.811831542828497</v>
       </c>
       <c r="F54">
-        <v>8.912979850352304</v>
+        <v>8.805929439540231</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8.376791219134763</v>
+        <v>8.864197515797947</v>
       </c>
       <c r="C55">
-        <v>9.269516173779696</v>
+        <v>8.932292844349401</v>
       </c>
       <c r="D55">
-        <v>8.841447794548383</v>
+        <v>8.403296604503341</v>
       </c>
       <c r="E55">
-        <v>9.000543650275942</v>
+        <v>8.851094336267131</v>
       </c>
       <c r="F55">
-        <v>8.94052455267847</v>
+        <v>8.849364410414479</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.359394880105905</v>
+        <v>8.907689533627225</v>
       </c>
       <c r="C56">
-        <v>9.285106162591857</v>
+        <v>8.967447121852995</v>
       </c>
       <c r="D56">
-        <v>8.874903756619949</v>
+        <v>8.385745926052262</v>
       </c>
       <c r="E56">
-        <v>9.028237625214624</v>
+        <v>8.890160793709713</v>
       </c>
       <c r="F56">
-        <v>8.96867284202291</v>
+        <v>8.892406738545024</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.342108558042277</v>
+        <v>8.950584306386958</v>
       </c>
       <c r="C57">
-        <v>9.299783678548808</v>
+        <v>9.002043392368112</v>
       </c>
       <c r="D57">
-        <v>8.907968831948933</v>
+        <v>8.36832701985103</v>
       </c>
       <c r="E57">
-        <v>9.054895681831082</v>
+        <v>8.928831204217566</v>
       </c>
       <c r="F57">
-        <v>8.997441447205285</v>
+        <v>8.934836136918854</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.324932353978815</v>
+        <v>8.992633801242381</v>
       </c>
       <c r="C58">
-        <v>9.313538631144512</v>
+        <v>9.035901925150869</v>
       </c>
       <c r="D58">
-        <v>8.940488672404415</v>
+        <v>8.351035470136438</v>
       </c>
       <c r="E58">
-        <v>9.080467423694875</v>
+        <v>8.966909745326294</v>
       </c>
       <c r="F58">
-        <v>9.026774919070018</v>
+        <v>8.976440839162818</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.307866057500638</v>
+        <v>9.033601827986423</v>
       </c>
       <c r="C59">
-        <v>9.326357029394295</v>
+        <v>9.068845856713596</v>
       </c>
       <c r="D59">
-        <v>8.972298396773544</v>
+        <v>8.333866658875747</v>
       </c>
       <c r="E59">
-        <v>9.104900257243633</v>
+        <v>9.004207401031296</v>
       </c>
       <c r="F59">
-        <v>9.056554091401804</v>
+        <v>9.017020257995584</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.290909183610404</v>
+        <v>9.073268460771983</v>
       </c>
       <c r="C60">
-        <v>9.338222477002065</v>
+        <v>9.100704444728603</v>
       </c>
       <c r="D60">
-        <v>9.003232765549834</v>
+        <v>8.316815784250739</v>
       </c>
       <c r="E60">
-        <v>9.128142329327449</v>
+        <v>9.040544627196915</v>
       </c>
       <c r="F60">
-        <v>9.086606811863009</v>
+        <v>9.056387368078296</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.274061000666856</v>
+        <v>9.111433821021372</v>
       </c>
       <c r="C61">
-        <v>9.349117684886281</v>
+        <v>9.131316460224468</v>
       </c>
       <c r="D61">
-        <v>9.033133826617341</v>
+        <v>8.299877883987778</v>
       </c>
       <c r="E61">
-        <v>9.150144930402544</v>
+        <v>9.075753806351837</v>
       </c>
       <c r="F61">
-        <v>9.116720789130042</v>
+        <v>9.09437071661374</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.257320559407104</v>
+        <v>9.147920961042807</v>
       </c>
       <c r="C62">
-        <v>9.359025669033633</v>
+        <v>9.160533463135165</v>
       </c>
       <c r="D62">
-        <v>9.061856414718704</v>
+        <v>8.283047864378981</v>
       </c>
       <c r="E62">
-        <v>9.170864129689004</v>
+        <v>9.109681375958827</v>
       </c>
       <c r="F62">
-        <v>9.146657488575304</v>
+        <v>9.130816010673275</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.24068671706204</v>
+        <v>9.18257778579796</v>
       </c>
       <c r="C63">
-        <v>9.367930474749308</v>
+        <v>9.188222694214183</v>
       </c>
       <c r="D63">
-        <v>9.08927165556525</v>
+        <v>8.266320533708031</v>
       </c>
       <c r="E63">
-        <v>9.190261714005723</v>
+        <v>9.142189412092225</v>
       </c>
       <c r="F63">
-        <v>9.176166057947562</v>
+        <v>9.165587238285777</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>8.224158158189475</v>
+        <v>9.215277959245507</v>
       </c>
       <c r="C64">
-        <v>9.375817909413382</v>
+        <v>9.214269327651101</v>
       </c>
       <c r="D64">
-        <v>9.115268841041194</v>
+        <v>8.249690639129808</v>
       </c>
       <c r="E64">
-        <v>9.2083058577612</v>
+        <v>9.173156740042348</v>
       </c>
       <c r="F64">
-        <v>9.204996199679035</v>
+        <v>9.198567325672009</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>8.207733415079039</v>
+        <v>9.245920857588141</v>
       </c>
       <c r="C65">
-        <v>9.382676132377131</v>
+        <v>9.238577910314538</v>
       </c>
       <c r="D65">
-        <v>9.139755977728168</v>
+        <v>8.233152908589917</v>
       </c>
       <c r="E65">
-        <v>9.224971461054173</v>
+        <v>9.202479532357858</v>
       </c>
       <c r="F65">
-        <v>9.232909089059181</v>
+        <v>9.2296583244063</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.191410889174781</v>
+        <v>9.27443072565425</v>
       </c>
       <c r="C66">
-        <v>9.388495940583553</v>
+        <v>9.261072982391665</v>
       </c>
       <c r="D66">
-        <v>9.16265952512801</v>
+        <v>8.216702093558307</v>
       </c>
       <c r="E66">
-        <v>9.240239959437691</v>
+        <v>9.230071433640012</v>
       </c>
       <c r="F66">
-        <v>9.259685841053185</v>
+        <v>9.258781194014823</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>8.175188870701776</v>
+        <v>9.300755140010628</v>
       </c>
       <c r="C67">
-        <v>9.393270918025811</v>
+        <v>9.281698834898506</v>
       </c>
       <c r="D67">
-        <v>9.183923449964846</v>
+        <v>8.200333014173918</v>
       </c>
       <c r="E67">
-        <v>9.254099191926684</v>
+        <v>9.255863232318395</v>
       </c>
       <c r="F67">
-        <v>9.28513322465859</v>
+        <v>9.285875184709116</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8.159065552973351</v>
+        <v>9.324863070783179</v>
       </c>
       <c r="C68">
-        <v>9.396997576018565</v>
+        <v>9.300418598967827</v>
       </c>
       <c r="D68">
-        <v>9.20350787345774</v>
+        <v>8.184040598696182</v>
       </c>
       <c r="E68">
-        <v>9.266543122223039</v>
+        <v>9.279802172936099</v>
       </c>
       <c r="F68">
-        <v>9.309086868334775</v>
+        <v>9.310896924833617</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8.143039043077746</v>
+        <v>9.346742629879527</v>
       </c>
       <c r="C69">
-        <v>9.3996753766632</v>
+        <v>9.317212814290686</v>
       </c>
       <c r="D69">
-        <v>9.221387535616612</v>
+        <v>8.167819925474632</v>
       </c>
       <c r="E69">
-        <v>9.277571371723578</v>
+        <v>9.301850994692627</v>
       </c>
       <c r="F69">
-        <v>9.331412309296732</v>
+        <v>9.333819269306813</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.127107375328944</v>
+        <v>9.366398677707922</v>
       </c>
       <c r="C70">
-        <v>9.401306734072614</v>
+        <v>9.332077627971954</v>
       </c>
       <c r="D70">
-        <v>9.23755013495</v>
+        <v>8.151666258367307</v>
       </c>
       <c r="E70">
-        <v>9.287188747206258</v>
+        <v>9.321986749310305</v>
       </c>
       <c r="F70">
-        <v>9.352004341025038</v>
+        <v>9.354629975932797</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>8.111268524689493</v>
+        <v>9.383850442572493</v>
       </c>
       <c r="C71">
-        <v>9.401896776935416</v>
+        <v>9.34502283876132</v>
       </c>
       <c r="D71">
-        <v>9.251994690077913</v>
+        <v>8.135575077657345</v>
       </c>
       <c r="E71">
-        <v>9.295404749885101</v>
+        <v>9.340199497978556</v>
       </c>
       <c r="F71">
-        <v>9.370785185728067</v>
+        <v>9.373330253133606</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>8.095520417159317</v>
+        <v>9.399129220914087</v>
       </c>
       <c r="C72">
-        <v>9.40145321676823</v>
+        <v>9.356069888346338</v>
       </c>
       <c r="D72">
-        <v>9.264729977655032</v>
+        <v>8.119542103971785</v>
       </c>
       <c r="E72">
-        <v>9.302233080824976</v>
+        <v>9.35649093005803</v>
       </c>
       <c r="F72">
-        <v>9.387701927760723</v>
+        <v>9.389933260621905</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8.079860938865446</v>
+        <v>9.412276243812601</v>
       </c>
       <c r="C73">
-        <v>9.399986209181789</v>
+        <v>9.365249922272683</v>
       </c>
       <c r="D73">
-        <v>9.275773065393487</v>
+        <v>8.103563315995443</v>
       </c>
       <c r="E73">
-        <v>9.307691146490528</v>
+        <v>9.370872975319347</v>
       </c>
       <c r="F73">
-        <v>9.402723576004245</v>
+        <v>9.404462601667214</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8.064287948378414</v>
+        <v>9.423340726854173</v>
       </c>
       <c r="C74">
-        <v>9.397508147368034</v>
+        <v>9.372601978464424</v>
       </c>
       <c r="D74">
-        <v>9.285147964213269</v>
+        <v>8.087634962545486</v>
       </c>
       <c r="E74">
-        <v>9.311799583783442</v>
+        <v>9.383366443277119</v>
       </c>
       <c r="F74">
-        <v>9.415838046549489</v>
+        <v>9.416950847948653</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>8.048799279172639</v>
+        <v>9.432378130955984</v>
       </c>
       <c r="C75">
-        <v>9.394033443516648</v>
+        <v>9.378171354790211</v>
       </c>
       <c r="D75">
-        <v>9.292884418355891</v>
+        <v>8.071753567563533</v>
       </c>
       <c r="E75">
-        <v>9.314581817545898</v>
+        <v>9.393999725111216</v>
       </c>
       <c r="F75">
-        <v>9.427049205343659</v>
+        <v>9.427438133717871</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>8.033392756367638</v>
+        <v>9.439448653138252</v>
       </c>
       <c r="C76">
-        <v>9.389578307973212</v>
+        <v>9.382008173567547</v>
       </c>
       <c r="D76">
-        <v>9.29901684399162</v>
+        <v>8.055915929516614</v>
       </c>
       <c r="E76">
-        <v>9.316063645834202</v>
+        <v>9.402807577543216</v>
       </c>
       <c r="F76">
-        <v>9.436374143399396</v>
+        <v>9.435970843263775</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8.018066191268957</v>
+        <v>9.444615925485628</v>
       </c>
       <c r="C77">
-        <v>9.384160535710219</v>
+        <v>9.384166116984547</v>
       </c>
       <c r="D77">
-        <v>9.303583392693346</v>
+        <v>8.040119116226553</v>
       </c>
       <c r="E77">
-        <v>9.316272855081827</v>
+        <v>9.409830008758588</v>
       </c>
       <c r="F77">
-        <v>9.443840714763349</v>
+        <v>9.442600382919796</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8.002817393304282</v>
+        <v>9.447945863174354</v>
       </c>
       <c r="C78">
-        <v>9.377799301403515</v>
+        <v>9.384701367958057</v>
       </c>
       <c r="D78">
-        <v>9.306625121900113</v>
+        <v>8.024360455690344</v>
       </c>
       <c r="E78">
-        <v>9.315238868045514</v>
+        <v>9.415111269616181</v>
       </c>
       <c r="F78">
-        <v>9.449485356617668</v>
+        <v>9.447382080867616</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.987644176104974</v>
+        <v>9.449505751199002</v>
       </c>
       <c r="C79">
-        <v>9.370514963790258</v>
+        <v>9.383671715015415</v>
       </c>
       <c r="D79">
-        <v>9.308185280642826</v>
+        <v>8.008637523768016</v>
       </c>
       <c r="E79">
-        <v>9.312992427120813</v>
+        <v>9.418698948573613</v>
       </c>
       <c r="F79">
-        <v>9.453351205520612</v>
+        <v>9.450374207710185</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.97254435999811</v>
+        <v>9.449363492530171</v>
       </c>
       <c r="C80">
-        <v>9.362328877387679</v>
+        <v>9.381135806938671</v>
       </c>
       <c r="D80">
-        <v>9.308308700478719</v>
+        <v>7.992948129496483</v>
       </c>
       <c r="E80">
-        <v>9.309565305775655</v>
+        <v>9.420643153297338</v>
       </c>
       <c r="F80">
-        <v>9.455486521906396</v>
+        <v>9.451637114103578</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.957515779929103</v>
+        <v>9.447586985238912</v>
       </c>
       <c r="C81">
-        <v>9.353263212936673</v>
+        <v>9.377152544806611</v>
       </c>
       <c r="D81">
-        <v>9.30704127530319</v>
+        <v>7.977290299471004</v>
       </c>
       <c r="E81">
-        <v>9.304990051882958</v>
+        <v>9.420995809386907</v>
       </c>
       <c r="F81">
-        <v>9.455943338450574</v>
+        <v>9.451232481365988</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7.942556287860424</v>
+        <v>9.444243598569379</v>
       </c>
       <c r="C82">
-        <v>9.343340791829924</v>
+        <v>9.371780581916864</v>
       </c>
       <c r="D82">
-        <v>9.304429517750906</v>
+        <v>7.961662261618909</v>
       </c>
       <c r="E82">
-        <v>9.299299759534327</v>
+        <v>9.419810077568156</v>
       </c>
       <c r="F82">
-        <v>9.454776328849725</v>
+        <v>9.449222672946096</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.927663755109488</v>
+        <v>9.439399748909667</v>
       </c>
       <c r="C83">
-        <v>9.332584935979767</v>
+        <v>9.365077929685476</v>
       </c>
       <c r="D83">
-        <v>9.300520185322492</v>
+        <v>7.946062427861797</v>
       </c>
       <c r="E83">
-        <v>9.292527861706031</v>
+        <v>9.417139820901314</v>
       </c>
       <c r="F83">
-        <v>9.452041873512895</v>
+        <v>9.445670116848238</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.912836080480987</v>
+        <v>9.433120576212936</v>
       </c>
       <c r="C84">
-        <v>9.32101933052868</v>
+        <v>9.357101643639878</v>
       </c>
       <c r="D84">
-        <v>9.295359964875818</v>
+        <v>7.930489378147779</v>
       </c>
       <c r="E84">
-        <v>9.284707950327391</v>
+        <v>9.413039158084471</v>
       </c>
       <c r="F84">
-        <v>9.447797307651827</v>
+        <v>9.44063692211952</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.898071187456796</v>
+        <v>9.425469696996192</v>
       </c>
       <c r="C85">
-        <v>9.308667896462088</v>
+        <v>9.347907576404468</v>
       </c>
       <c r="D85">
-        <v>9.288995213094207</v>
+        <v>7.914941844471786</v>
       </c>
       <c r="E85">
-        <v>9.275873621781209</v>
+        <v>9.407562096060643</v>
       </c>
       <c r="F85">
-        <v>9.442100301350626</v>
+        <v>9.434184508329203</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.883366884677195</v>
+        <v>9.416509029084562</v>
       </c>
       <c r="C86">
-        <v>9.295554611351976</v>
+        <v>9.337550193215305</v>
       </c>
       <c r="D86">
-        <v>9.281471875071439</v>
+        <v>7.899418696479657</v>
       </c>
       <c r="E86">
-        <v>9.266058296174862</v>
+        <v>9.400762208539037</v>
       </c>
       <c r="F86">
-        <v>9.435008490575884</v>
+        <v>9.426373284140645</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.868720638053827</v>
+        <v>9.406298652252888</v>
       </c>
       <c r="C87">
-        <v>9.281702464250706</v>
+        <v>9.326082432850496</v>
       </c>
       <c r="D87">
-        <v>9.272834839218509</v>
+        <v>7.883918926757802</v>
       </c>
       <c r="E87">
-        <v>9.255294577212711</v>
+        <v>9.392692378518756</v>
       </c>
       <c r="F87">
-        <v>9.426578405993052</v>
+        <v>9.417262403785458</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.854129879189581</v>
+        <v>9.394896708710487</v>
       </c>
       <c r="C88">
-        <v>9.267134717437211</v>
+        <v>9.313555607914122</v>
       </c>
       <c r="D88">
-        <v>9.263127907286927</v>
+        <v>7.868441637315305</v>
       </c>
       <c r="E88">
-        <v>9.24361471119777</v>
+        <v>9.383404585071075</v>
       </c>
       <c r="F88">
-        <v>9.416866245810549</v>
+        <v>9.406909554577538</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.839592098819109</v>
+        <v>9.382359341808007</v>
       </c>
       <c r="C89">
-        <v>9.251874626406094</v>
+        <v>9.300019342695647</v>
       </c>
       <c r="D89">
-        <v>9.252394563121713</v>
+        <v>7.852986029749406</v>
       </c>
       <c r="E89">
-        <v>9.231050865435726</v>
+        <v>9.372949735913551</v>
       </c>
       <c r="F89">
-        <v>9.405926934261318</v>
+        <v>9.395370821681761</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.825104896614461</v>
+        <v>9.368740665840471</v>
       </c>
       <c r="C90">
-        <v>9.235945352219636</v>
+        <v>9.285521526367841</v>
       </c>
       <c r="D90">
-        <v>9.240676964792382</v>
+        <v>7.837551394364694</v>
       </c>
       <c r="E90">
-        <v>9.217634663476792</v>
+        <v>9.361377535873418</v>
       </c>
       <c r="F90">
-        <v>9.393814070987696</v>
+        <v>9.382700584725757</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.810665978235845</v>
+        <v>9.354092759603597</v>
       </c>
       <c r="C91">
-        <v>9.219369934975681</v>
+        <v>9.270108289184638</v>
       </c>
       <c r="D91">
-        <v>9.228016128579489</v>
+        <v>7.822137099772458</v>
       </c>
       <c r="E91">
-        <v>9.203397223894218</v>
+        <v>9.348736368621923</v>
       </c>
       <c r="F91">
-        <v>9.38057990332894</v>
+        <v>9.368951445900255</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.796273140137542</v>
+        <v>9.338465661249257</v>
       </c>
       <c r="C92">
-        <v>9.202171182325385</v>
+        <v>9.253824011096746</v>
       </c>
       <c r="D92">
-        <v>9.214451950556519</v>
+        <v>7.806742584031711</v>
       </c>
       <c r="E92">
-        <v>9.188369140971524</v>
+        <v>9.335073232423053</v>
       </c>
       <c r="F92">
-        <v>9.366275094495935</v>
+        <v>9.354174186284219</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.781924258549176</v>
+        <v>9.321907401427584</v>
       </c>
       <c r="C93">
-        <v>9.184371618390896</v>
+        <v>9.236711335285621</v>
       </c>
       <c r="D93">
-        <v>9.200023156896703</v>
+        <v>7.791367344875154</v>
       </c>
       <c r="E93">
-        <v>9.172580409848175</v>
+        <v>9.320433681787842</v>
       </c>
       <c r="F93">
-        <v>9.35094868408456</v>
+        <v>9.338417737088802</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.767617288117893</v>
+        <v>9.304464034700107</v>
       </c>
       <c r="C94">
-        <v>9.165993430291342</v>
+        <v>9.218811190908673</v>
       </c>
       <c r="D94">
-        <v>9.184767190282471</v>
+        <v>7.776010934377955</v>
       </c>
       <c r="E94">
-        <v>9.15606034383133</v>
+        <v>9.30486179183832</v>
       </c>
       <c r="F94">
-        <v>9.334648063089546</v>
+        <v>9.321729179906939</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7.753350265953358</v>
+        <v>9.286179682500565</v>
       </c>
       <c r="C95">
-        <v>9.147058415554767</v>
+        <v>9.200162812587179</v>
       </c>
       <c r="D95">
-        <v>9.168720235596817</v>
+        <v>7.760672954042559</v>
       </c>
       <c r="E95">
-        <v>9.13883755140799</v>
+        <v>9.28840013583091</v>
       </c>
       <c r="F95">
-        <v>9.317418952545902</v>
+        <v>9.304153753001302</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.739121309528349</v>
+        <v>9.267096580236817</v>
       </c>
       <c r="C96">
-        <v>9.127587940224911</v>
+        <v>9.180803787089213</v>
       </c>
       <c r="D96">
-        <v>9.151917254287541</v>
+        <v>7.745353048904356</v>
       </c>
       <c r="E96">
-        <v>9.120939927417261</v>
+        <v>9.271089776539645</v>
       </c>
       <c r="F96">
-        <v>9.299305389793467</v>
+        <v>9.285734874051714</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.724928618360489</v>
+        <v>9.247255129584508</v>
       </c>
       <c r="C97">
-        <v>9.107602906854222</v>
+        <v>9.160770093532653</v>
       </c>
       <c r="D97">
-        <v>9.134391975014436</v>
+        <v>7.730050902344454</v>
       </c>
       <c r="E97">
-        <v>9.102394631769448</v>
+        <v>9.252970268347637</v>
       </c>
       <c r="F97">
-        <v>9.280349732712587</v>
+        <v>9.266514176454281</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.710770464044869</v>
+        <v>9.226693954758796</v>
       </c>
       <c r="C98">
-        <v>9.087123733926296</v>
+        <v>9.140096151526629</v>
       </c>
       <c r="D98">
-        <v>9.116176896462491</v>
+        <v>7.714766231382142</v>
       </c>
       <c r="E98">
-        <v>9.083228068572907</v>
+        <v>9.234079670821702</v>
       </c>
       <c r="F98">
-        <v>9.260592679020652</v>
+        <v>9.246531539535841</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.696645185359009</v>
+        <v>9.2054499621732</v>
       </c>
       <c r="C99">
-        <v>9.066170332306299</v>
+        <v>9.118814869788524</v>
       </c>
       <c r="D99">
-        <v>9.09730330661327</v>
+        <v>7.699498782905652</v>
       </c>
       <c r="E99">
-        <v>9.063465875524082</v>
+        <v>9.214454568415928</v>
       </c>
       <c r="F99">
-        <v>9.240073294761512</v>
+        <v>9.225825134406529</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7.682551187839924</v>
+        <v>9.183558401107982</v>
       </c>
       <c r="C100">
-        <v>9.044762092124811</v>
+        <v>9.096957696369454</v>
       </c>
       <c r="D100">
-        <v>9.077801299474299</v>
+        <v>7.684248330409024</v>
       </c>
       <c r="E100">
-        <v>9.043132923046501</v>
+        <v>9.194130095621768</v>
       </c>
       <c r="F100">
-        <v>9.218829048285292</v>
+        <v>9.20443147929833</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7.668486941582606</v>
+        <v>9.161052924475332</v>
       </c>
       <c r="C101">
-        <v>9.022917871698661</v>
+        <v>9.074554669859404</v>
       </c>
       <c r="D101">
-        <v>9.057699787295508</v>
+        <v>7.669014671038018</v>
       </c>
       <c r="E101">
-        <v>9.022253312966521</v>
+        <v>9.173139966945518</v>
       </c>
       <c r="F101">
-        <v>9.196895845856639</v>
+        <v>9.182385487521557</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7.654450979809267</v>
+        <v>9.137965649640405</v>
       </c>
       <c r="C102">
-        <v>9.000655999548</v>
+        <v>9.051634471189224</v>
       </c>
       <c r="D102">
-        <v>9.037026556907866</v>
+        <v>7.653797622987353</v>
       </c>
       <c r="E102">
-        <v>9.000850382043529</v>
+        <v>9.151516510763523</v>
       </c>
       <c r="F102">
-        <v>9.174308081135157</v>
+        <v>9.159720522268206</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.640441895923266</v>
+        <v>9.114327219334882</v>
       </c>
       <c r="C103">
-        <v>8.977994256257649</v>
+        <v>9.028224475409562</v>
       </c>
       <c r="D103">
-        <v>9.015808249511966</v>
+        <v>7.638597023310984</v>
       </c>
       <c r="E103">
-        <v>8.978946705797719</v>
+        <v>9.129290706154798</v>
       </c>
       <c r="F103">
-        <v>9.151098675902952</v>
+        <v>9.136468450492535</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.626458341101086</v>
+        <v>9.090166858227445</v>
       </c>
       <c r="C104">
-        <v>8.954949885862709</v>
+        <v>9.004350803143556</v>
       </c>
       <c r="D104">
-        <v>8.994070451908563</v>
+        <v>7.623412725796873</v>
       </c>
       <c r="E104">
-        <v>8.956564103642323</v>
+        <v>9.10649222188335</v>
       </c>
       <c r="F104">
-        <v>9.127299125724134</v>
+        <v>9.112659697434708</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.612499027384834</v>
+        <v>9.065512435168666</v>
       </c>
       <c r="C105">
-        <v>8.931539579829563</v>
+        <v>8.980038371234548</v>
       </c>
       <c r="D105">
-        <v>8.971837692087522</v>
+        <v>7.608244599081988</v>
       </c>
       <c r="E105">
-        <v>8.933723654736902</v>
+        <v>9.08314945690792</v>
       </c>
       <c r="F105">
-        <v>9.102939547939819</v>
+        <v>9.08832330149497</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.598562713639292</v>
+        <v>9.040390520108962</v>
       </c>
       <c r="C106">
-        <v>8.907779496622341</v>
+        <v>8.955310942062587</v>
       </c>
       <c r="D106">
-        <v>8.949133485814258</v>
+        <v>7.593092525047685</v>
       </c>
       <c r="E106">
-        <v>8.910445705129153</v>
+        <v>9.05928958288705</v>
       </c>
       <c r="F106">
-        <v>9.078048746908982</v>
+        <v>9.063486969220493</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.584648224463381</v>
+        <v>9.01482644012923</v>
       </c>
       <c r="C107">
-        <v>8.883685247031428</v>
+        <v>8.930191173095597</v>
       </c>
       <c r="D107">
-        <v>8.925980355379719</v>
+        <v>7.577956397336312</v>
       </c>
       <c r="E107">
-        <v>8.886749890413066</v>
+        <v>9.034938583333821</v>
       </c>
       <c r="F107">
-        <v>9.052654221063595</v>
+        <v>9.038177129356278</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.570754420156881</v>
+        <v>8.988844333600408</v>
       </c>
       <c r="C108">
-        <v>8.859271932118945</v>
+        <v>8.904700661884727</v>
       </c>
       <c r="D108">
-        <v>8.902399875710435</v>
+        <v>7.562836120193</v>
       </c>
       <c r="E108">
-        <v>8.862655141994873</v>
+        <v>9.010121295798964</v>
       </c>
       <c r="F108">
-        <v>9.026782268075587</v>
+        <v>9.012418985988351</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.556880223011277</v>
+        <v>8.96246719921602</v>
       </c>
       <c r="C109">
-        <v>8.834554116317207</v>
+        <v>8.878859994541203</v>
       </c>
       <c r="D109">
-        <v>8.878412701656773</v>
+        <v>7.547731607364435</v>
       </c>
       <c r="E109">
-        <v>8.838179704395779</v>
+        <v>8.984861455613613</v>
       </c>
       <c r="F109">
-        <v>9.000457948241053</v>
+        <v>8.98623657036808</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.543024593926547</v>
+        <v>8.935716953133996</v>
       </c>
       <c r="C110">
-        <v>8.809545874596843</v>
+        <v>8.852688791512429</v>
       </c>
       <c r="D110">
-        <v>8.854038592089861</v>
+        <v>7.532642781090292</v>
       </c>
       <c r="E110">
-        <v>8.813341166367573</v>
+        <v>8.959181739133339</v>
       </c>
       <c r="F110">
-        <v>8.973705223708423</v>
+        <v>8.959652790725348</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.529186540163483</v>
+        <v>8.908614466775067</v>
       </c>
       <c r="C111">
-        <v>8.784260773225883</v>
+        <v>8.826205743532638</v>
       </c>
       <c r="D111">
-        <v>8.82929645351952</v>
+        <v>7.517569571229465</v>
       </c>
       <c r="E111">
-        <v>8.788156458597626</v>
+        <v>8.933103802820588</v>
       </c>
       <c r="F111">
-        <v>8.946546964173281</v>
+        <v>8.932689481196311</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.515365113044984</v>
+        <v>8.88117962441166</v>
       </c>
       <c r="C112">
-        <v>8.758711899177165</v>
+        <v>8.799428663638901</v>
       </c>
       <c r="D112">
-        <v>8.804204375175068</v>
+        <v>7.502511914440149</v>
       </c>
       <c r="E112">
-        <v>8.762641871074901</v>
+        <v>8.906648325955047</v>
       </c>
       <c r="F112">
-        <v>8.919004996111601</v>
+        <v>8.905367449088585</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.501559404490969</v>
+        <v>8.853431365600221</v>
       </c>
       <c r="C113">
-        <v>8.732911858548812</v>
+        <v>8.772374515088984</v>
       </c>
       <c r="D113">
-        <v>8.778779644983397</v>
+        <v>7.487469753517815</v>
       </c>
       <c r="E113">
-        <v>8.736813084392939</v>
+        <v>8.879835047689296</v>
       </c>
       <c r="F113">
-        <v>8.891100151393221</v>
+        <v>8.877706520685141</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.487768546105424</v>
+        <v>8.825387724357899</v>
       </c>
       <c r="C114">
-        <v>8.706872786530436</v>
+        <v>8.745059458670992</v>
       </c>
       <c r="D114">
-        <v>8.753038794448285</v>
+        <v>7.47244303677172</v>
       </c>
       <c r="E114">
-        <v>8.710685181732293</v>
+        <v>8.852682805515911</v>
       </c>
       <c r="F114">
-        <v>8.86285230890492</v>
+        <v>8.849725585491875</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.473991710594232</v>
+        <v>8.797065878926315</v>
       </c>
       <c r="C115">
-        <v>8.680606371577454</v>
+        <v>8.71749888438757</v>
       </c>
       <c r="D115">
-        <v>8.726997617635885</v>
+        <v>7.457431717478186</v>
       </c>
       <c r="E115">
-        <v>8.684272663192848</v>
+        <v>8.825209570491914</v>
       </c>
       <c r="F115">
-        <v>8.834280422955873</v>
+        <v>8.821442637620533</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.46022810565126</v>
+        <v>8.768482183627437</v>
       </c>
       <c r="C116">
-        <v>8.654123865981378</v>
+        <v>8.689707448182034</v>
       </c>
       <c r="D116">
-        <v>8.700671209714278</v>
+        <v>7.442435753497548</v>
       </c>
       <c r="E116">
-        <v>8.657589467321444</v>
+        <v>8.797432488622318</v>
       </c>
       <c r="F116">
-        <v>8.805402570138957</v>
+        <v>8.792874816589029</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.446476976527795</v>
+        <v>8.739652211147707</v>
       </c>
       <c r="C117">
-        <v>8.627436073203528</v>
+        <v>8.661699111021425</v>
       </c>
       <c r="D117">
-        <v>8.674073995463294</v>
+        <v>7.427455106551675</v>
       </c>
       <c r="E117">
-        <v>8.630648987575013</v>
+        <v>8.769367915249012</v>
       </c>
       <c r="F117">
-        <v>8.776235986895349</v>
+        <v>8.764038449339546</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.432737602432947</v>
+        <v>8.710590790687251</v>
       </c>
       <c r="C118">
-        <v>8.600553397987751</v>
+        <v>8.633487161735228</v>
       </c>
       <c r="D118">
-        <v>8.647219754534399</v>
+        <v>7.412489742236096</v>
       </c>
       <c r="E118">
-        <v>8.603464090617212</v>
+        <v>8.741031446068169</v>
       </c>
       <c r="F118">
-        <v>8.746797109656738</v>
+        <v>8.73494908438402</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.419009295715936</v>
+        <v>8.681312037576534</v>
       </c>
       <c r="C119">
-        <v>8.573485850889316</v>
+        <v>8.605084258191473</v>
       </c>
       <c r="D119">
-        <v>8.620121638266987</v>
+        <v>7.397539628947947</v>
       </c>
       <c r="E119">
-        <v>8.576047133861438</v>
+        <v>8.712437954595259</v>
       </c>
       <c r="F119">
-        <v>8.717101602631327</v>
+        <v>8.705621532339014</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.405291400663825</v>
+        <v>8.651829393457909</v>
       </c>
       <c r="C120">
-        <v>8.546243011652891</v>
+        <v>8.576502449148446</v>
       </c>
       <c r="D120">
-        <v>8.592792223630548</v>
+        <v>7.382604738677449</v>
       </c>
       <c r="E120">
-        <v>8.548409983594409</v>
+        <v>8.68360162159261</v>
       </c>
       <c r="F120">
-        <v>8.687164404837921</v>
+        <v>8.676069896158667</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.391583291979436</v>
+        <v>8.622155653313717</v>
       </c>
       <c r="C121">
-        <v>8.51883411281287</v>
+        <v>8.547753206513118</v>
       </c>
       <c r="D121">
-        <v>8.565243500640189</v>
+        <v>7.367685045501776</v>
       </c>
       <c r="E121">
-        <v>8.520564032308352</v>
+        <v>8.654535964264504</v>
       </c>
       <c r="F121">
-        <v>8.656999774805339</v>
+        <v>8.64630760481022</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.377884373343891</v>
+        <v>8.592302996492061</v>
       </c>
       <c r="C122">
-        <v>8.491268037107352</v>
+        <v>8.518847453716367</v>
       </c>
       <c r="D122">
-        <v>8.537486923634676</v>
+        <v>7.352780526514262</v>
       </c>
       <c r="E122">
-        <v>8.492520211170323</v>
+        <v>8.625253871220327</v>
       </c>
       <c r="F122">
-        <v>8.626621262032959</v>
+        <v>8.616347447797505</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7.364194076548069</v>
+        <v>8.562283020691932</v>
       </c>
       <c r="C123">
-        <v>8.463553274665751</v>
+        <v>8.48979558670905</v>
       </c>
       <c r="D123">
-        <v>8.509533431240801</v>
+        <v>7.337891160660065</v>
       </c>
       <c r="E123">
-        <v>8.464289015864354</v>
+        <v>8.595767623927133</v>
       </c>
       <c r="F123">
-        <v>8.596041809726358</v>
+        <v>8.586201596802251</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.350511860433616</v>
+        <v>8.532106762507022</v>
       </c>
       <c r="C124">
-        <v>8.435697998746514</v>
+        <v>8.460607506173872</v>
       </c>
       <c r="D124">
-        <v>8.481393442424336</v>
+        <v>7.323016929240961</v>
       </c>
       <c r="E124">
-        <v>8.435880517939792</v>
+        <v>8.566088929888801</v>
       </c>
       <c r="F124">
-        <v>8.565273803139776</v>
+        <v>8.555881647618627</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.336837209105035</v>
+        <v>8.501784726276581</v>
       </c>
       <c r="C125">
-        <v>8.407710063928812</v>
+        <v>8.43129263382369</v>
       </c>
       <c r="D125">
-        <v>8.453076923136788</v>
+        <v>7.308157815196676</v>
       </c>
       <c r="E125">
-        <v>8.407304360180673</v>
+        <v>8.536228945717086</v>
       </c>
       <c r="F125">
-        <v>8.534328962126173</v>
+        <v>8.525398634196435</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.323169632325147</v>
+        <v>8.471326912371511</v>
       </c>
       <c r="C126">
-        <v>8.379596996070735</v>
+        <v>8.401859940485297</v>
       </c>
       <c r="D126">
-        <v>8.424593363075806</v>
+        <v>7.293313803137402</v>
       </c>
       <c r="E126">
-        <v>8.378569817486127</v>
+        <v>8.5061983015775</v>
       </c>
       <c r="F126">
-        <v>8.503218483671215</v>
+        <v>8.494763069498919</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.309508662674713</v>
+        <v>8.440742847149833</v>
       </c>
       <c r="C127">
-        <v>8.351366016986319</v>
+        <v>8.372317965527991</v>
       </c>
       <c r="D127">
-        <v>8.395951829837715</v>
+        <v>7.278484879142841</v>
       </c>
       <c r="E127">
-        <v>8.349685780105986</v>
+        <v>8.476007129912233</v>
       </c>
       <c r="F127">
-        <v>8.47195311641809</v>
+        <v>8.463984954955416</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.295853856526741</v>
+        <v>8.410041579952107</v>
       </c>
       <c r="C128">
-        <v>8.323024051374396</v>
+        <v>8.342674835675897</v>
       </c>
       <c r="D128">
-        <v>8.367160970018029</v>
+        <v>7.263671030799729</v>
       </c>
       <c r="E128">
-        <v>8.320660745465293</v>
+        <v>8.445665082070963</v>
       </c>
       <c r="F128">
-        <v>8.440543011017336</v>
+        <v>8.433073820892178</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.282204791363029</v>
+        <v>8.379231760565576</v>
       </c>
       <c r="C129">
-        <v>8.29457775522817</v>
+        <v>8.312938288667247</v>
       </c>
       <c r="D129">
-        <v>8.338229022304077</v>
+        <v>7.248872246815127</v>
       </c>
       <c r="E129">
-        <v>8.291502898080745</v>
+        <v>8.415181356170612</v>
       </c>
       <c r="F129">
-        <v>8.408997843757145</v>
+        <v>8.402038733348951</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.268561066245536</v>
+        <v>8.348321584724145</v>
       </c>
       <c r="C130">
-        <v>8.266033498139631</v>
+        <v>8.283115682885475</v>
       </c>
       <c r="D130">
-        <v>8.309163862935446</v>
+        <v>7.234088517180128</v>
       </c>
       <c r="E130">
-        <v>8.262220074193536</v>
+        <v>8.384564714915243</v>
       </c>
       <c r="F130">
-        <v>8.37732691593755</v>
+        <v>8.37088833043072</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.254922299940634</v>
+        <v>8.317318877408816</v>
       </c>
       <c r="C131">
-        <v>8.237397378407294</v>
+        <v>8.253214035599571</v>
       </c>
       <c r="D131">
-        <v>8.279972980886541</v>
+        <v>7.219319832852657</v>
       </c>
       <c r="E131">
-        <v>8.23281975707301</v>
+        <v>8.353823500305682</v>
       </c>
       <c r="F131">
-        <v>8.345539022424346</v>
+        <v>8.339630830198958</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.241288130679123</v>
+        <v>8.286231091577827</v>
       </c>
       <c r="C132">
-        <v>8.208675261314013</v>
+        <v>8.223240012014218</v>
       </c>
       <c r="D132">
-        <v>8.250663539371843</v>
+        <v>7.204566185810997</v>
       </c>
       <c r="E132">
-        <v>8.203309156517781</v>
+        <v>8.322965669425235</v>
       </c>
       <c r="F132">
-        <v>8.313642532899582</v>
+        <v>8.308274061151586</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.227658215062934</v>
+        <v>8.255065291526488</v>
       </c>
       <c r="C133">
-        <v>8.179872756339568</v>
+        <v>8.193199966486995</v>
       </c>
       <c r="D133">
-        <v>8.221242358631947</v>
+        <v>7.189827568885549</v>
       </c>
       <c r="E133">
-        <v>8.173695170180434</v>
+        <v>8.291998801021009</v>
       </c>
       <c r="F133">
-        <v>8.281645483510088</v>
+        <v>8.276825473306138</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.214032227252106</v>
+        <v>8.223828237688108</v>
       </c>
       <c r="C134">
-        <v>8.150995233742957</v>
+        <v>8.163099964290945</v>
       </c>
       <c r="D134">
-        <v>8.191715939268393</v>
+        <v>7.175103975725849</v>
       </c>
       <c r="E134">
-        <v>8.143984386089199</v>
+        <v>8.260930102911566</v>
       </c>
       <c r="F134">
-        <v>8.24955549097254</v>
+        <v>8.245292161371719</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.200409858543281</v>
+        <v>8.192526332268462</v>
       </c>
       <c r="C135">
-        <v>8.122047851794591</v>
+        <v>8.132945733347222</v>
       </c>
       <c r="D135">
-        <v>8.162090491459105</v>
+        <v>7.160395400718119</v>
       </c>
       <c r="E135">
-        <v>8.11418314666906</v>
+        <v>8.229766473412681</v>
       </c>
       <c r="F135">
-        <v>8.21737980186618</v>
+        <v>8.213680879742313</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.186790816040014</v>
+        <v>8.161165689063058</v>
       </c>
       <c r="C136">
-        <v>8.093035545801975</v>
+        <v>8.102742776768553</v>
       </c>
       <c r="D136">
-        <v>8.132371918433419</v>
+        <v>7.145701838922018</v>
       </c>
       <c r="E136">
-        <v>8.084297518215473</v>
+        <v>8.198514448579257</v>
       </c>
       <c r="F136">
-        <v>8.185125367262298</v>
+        <v>8.181998058274344</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.173174822858432</v>
+        <v>8.129752124543863</v>
       </c>
       <c r="C137">
-        <v>8.063963041521895</v>
+        <v>8.072496310621645</v>
       </c>
       <c r="D137">
-        <v>8.10256586614388</v>
+        <v>7.131023286085079</v>
       </c>
       <c r="E137">
-        <v>8.054333296747338</v>
+        <v>8.167180274975024</v>
       </c>
       <c r="F137">
-        <v>8.152798783426489</v>
+        <v>8.150249821477809</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.159561616394363</v>
+        <v>8.098291171227258</v>
       </c>
       <c r="C138">
-        <v>8.034834876363991</v>
+        <v>8.042211286351428</v>
       </c>
       <c r="D138">
-        <v>8.072677704458007</v>
+        <v>7.116359738467459</v>
       </c>
       <c r="E138">
-        <v>8.024296058899665</v>
+        <v>8.135769915389844</v>
       </c>
       <c r="F138">
-        <v>8.120406321835175</v>
+        <v>8.118441996699923</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.145950948864281</v>
+        <v>8.066788110653539</v>
       </c>
       <c r="C139">
-        <v>8.00565538983613</v>
+        <v>8.011892446745335</v>
       </c>
       <c r="D139">
-        <v>8.042712555475779</v>
+        <v>7.101711192761685</v>
       </c>
       <c r="E139">
-        <v>7.994191137510278</v>
+        <v>8.104289010838551</v>
       </c>
       <c r="F139">
-        <v>8.087954006703324</v>
+        <v>8.086580137556435</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.132342585561429</v>
+        <v>8.035247946302665</v>
       </c>
       <c r="C140">
-        <v>7.976428734342901</v>
+        <v>7.981544274925298</v>
       </c>
       <c r="D140">
-        <v>8.012675306695652</v>
+        <v>7.08707764638851</v>
       </c>
       <c r="E140">
-        <v>7.96402362786115</v>
+        <v>8.072742975125738</v>
       </c>
       <c r="F140">
-        <v>8.055447553603422</v>
+        <v>8.054669526901975</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.118736305233893</v>
+        <v>8.003675465976617</v>
       </c>
       <c r="C141">
-        <v>7.947158902229967</v>
+        <v>7.951171058053558</v>
       </c>
       <c r="D141">
-        <v>7.982570604305638</v>
+        <v>7.072459096896422</v>
       </c>
       <c r="E141">
-        <v>7.933798433029623</v>
+        <v>8.041136946358602</v>
       </c>
       <c r="F141">
-        <v>8.022892386493298</v>
+        <v>8.022715199915408</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.105131898849799</v>
+        <v>7.972075218036443</v>
       </c>
       <c r="C142">
-        <v>7.91784970678212</v>
+        <v>7.920776875343337</v>
       </c>
       <c r="D142">
-        <v>7.952402891129206</v>
+        <v>7.057855542199864</v>
       </c>
       <c r="E142">
-        <v>7.903520239622961</v>
+        <v>8.009475815121021</v>
       </c>
       <c r="F142">
-        <v>7.990293729120797</v>
+        <v>7.990721946919078</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.091529169414321</v>
+        <v>7.940451528826904</v>
       </c>
       <c r="C143">
-        <v>7.888504792780168</v>
+        <v>7.890365603270807</v>
       </c>
       <c r="D143">
-        <v>7.922176388078035</v>
+        <v>7.043266981116955</v>
       </c>
       <c r="E143">
-        <v>7.873193524764107</v>
+        <v>7.977764257249612</v>
       </c>
       <c r="F143">
-        <v>7.957656535694281</v>
+        <v>7.958694332086946</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.077927931394241</v>
+        <v>7.908808531015253</v>
       </c>
       <c r="C144">
-        <v>7.859127669241387</v>
+        <v>7.859940946702491</v>
       </c>
       <c r="D144">
-        <v>7.89189512589125</v>
+        <v>7.028693412229087</v>
       </c>
       <c r="E144">
-        <v>7.842822598666891</v>
+        <v>7.946006705252263</v>
       </c>
       <c r="F144">
-        <v>7.924985500004134</v>
+        <v>7.926636695673926</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7.064328010038131</v>
+        <v>7.877150140596468</v>
       </c>
       <c r="C145">
-        <v>7.829721684788305</v>
+        <v>7.829506419115262</v>
       </c>
       <c r="D145">
-        <v>7.861562944833321</v>
+        <v>7.014134834573995</v>
       </c>
       <c r="E145">
-        <v>7.812411578778424</v>
+        <v>7.914207401760455</v>
       </c>
       <c r="F145">
-        <v>7.892285148552729</v>
+        <v>7.894553182179227</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.050729241280626</v>
+        <v>7.845480103735149</v>
       </c>
       <c r="C146">
-        <v>7.80029003849369</v>
+        <v>7.799065369258459</v>
       </c>
       <c r="D146">
-        <v>7.83118349786621</v>
+        <v>6.999591247800506</v>
       </c>
       <c r="E146">
-        <v>7.78196439869045</v>
+        <v>7.882370384197993</v>
       </c>
       <c r="F146">
-        <v>7.859559775956516</v>
+        <v>7.862447730621836</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7.037131470763569</v>
+        <v>7.813801978605818</v>
       </c>
       <c r="C147">
-        <v>7.770835810075027</v>
+        <v>7.768620996263703</v>
       </c>
       <c r="D147">
-        <v>7.800760276473935</v>
+        <v>6.985062651482383</v>
       </c>
       <c r="E147">
-        <v>7.751484846136623</v>
+        <v>7.850499493242219</v>
       </c>
       <c r="F147">
-        <v>7.826813449995817</v>
+        <v>7.830324090911088</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.023534554049331</v>
+        <v>7.782119153614119</v>
       </c>
       <c r="C148">
-        <v>7.741361938425178</v>
+        <v>7.738176327891612</v>
       </c>
       <c r="D148">
-        <v>7.77029659468778</v>
+        <v>6.970549045556115</v>
       </c>
       <c r="E148">
-        <v>7.720976537793253</v>
+        <v>7.818598405130786</v>
       </c>
       <c r="F148">
-        <v>7.794050092112468</v>
+        <v>7.798185857435943</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.009938355486945</v>
+        <v>7.750434862407573</v>
       </c>
       <c r="C149">
-        <v>7.711871231403242</v>
+        <v>7.707734265738887</v>
       </c>
       <c r="D149">
-        <v>7.739795621426301</v>
+        <v>6.956050430304932</v>
       </c>
       <c r="E149">
-        <v>7.690442930164211</v>
+        <v>7.786670605708511</v>
       </c>
       <c r="F149">
-        <v>7.761273426761938</v>
+        <v>7.766036423339211</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6.996342748572451</v>
+        <v>7.718752173607004</v>
       </c>
       <c r="C150">
-        <v>7.682366390409724</v>
+        <v>7.677297565051833</v>
       </c>
       <c r="D150">
-        <v>7.709260370752502</v>
+        <v>6.9415668060955</v>
       </c>
       <c r="E150">
-        <v>7.659887351043278</v>
+        <v>7.754719426412499</v>
       </c>
       <c r="F150">
-        <v>7.728486982524775</v>
+        <v>7.733879035698719</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6.982747614844966</v>
+        <v>7.687074022173771</v>
       </c>
       <c r="C151">
-        <v>7.652849995310679</v>
+        <v>7.646868843721251</v>
       </c>
       <c r="D151">
-        <v>7.678693711970805</v>
+        <v>6.927098173515703</v>
       </c>
       <c r="E151">
-        <v>7.629312976725889</v>
+        <v>7.72274804768539</v>
       </c>
       <c r="F151">
-        <v>7.695694160253369</v>
+        <v>7.701716804576334</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6.969152844108907</v>
+        <v>7.655403195327666</v>
       </c>
       <c r="C152">
-        <v>7.623324512932127</v>
+        <v>7.616450607726636</v>
       </c>
       <c r="D152">
-        <v>7.648098385523467</v>
+        <v>6.912644533302388</v>
       </c>
       <c r="E152">
-        <v>7.598722844058198</v>
+        <v>7.690759485239922</v>
       </c>
       <c r="F152">
-        <v>7.662898193258682</v>
+        <v>7.669552653645931</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6.955558333727811</v>
+        <v>7.62374235125434</v>
       </c>
       <c r="C153">
-        <v>7.59379231539161</v>
+        <v>7.586045231074959</v>
       </c>
       <c r="D153">
-        <v>7.617476992389992</v>
+        <v>6.898205886341238</v>
       </c>
       <c r="E153">
-        <v>7.568119876330119</v>
+        <v>7.658756630756677</v>
       </c>
       <c r="F153">
-        <v>7.630102143208025</v>
+        <v>7.637389401512674</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6.941963988418085</v>
+        <v>7.592094025602482</v>
       </c>
       <c r="C154">
-        <v>7.564255666860574</v>
+        <v>7.555654983661349</v>
       </c>
       <c r="D154">
-        <v>7.586832019581969</v>
+        <v>6.883782233698707</v>
       </c>
       <c r="E154">
-        <v>7.537506865164058</v>
+        <v>7.626742231969081</v>
       </c>
       <c r="F154">
-        <v>7.597308964134138</v>
+        <v>7.605229727848635</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6.928369719994018</v>
+        <v>7.560460625982619</v>
       </c>
       <c r="C155">
-        <v>7.534716729010549</v>
+        <v>7.525282027408641</v>
       </c>
       <c r="D155">
-        <v>7.556165830350158</v>
+        <v>6.869373576640376</v>
       </c>
       <c r="E155">
-        <v>7.506886483172551</v>
+        <v>7.594718906649729</v>
       </c>
       <c r="F155">
-        <v>7.56452146625038</v>
+        <v>7.573076166681963</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6.914775446942297</v>
+        <v>7.528844456673784</v>
       </c>
       <c r="C156">
-        <v>7.505177585217958</v>
+        <v>7.494928413992143</v>
       </c>
       <c r="D156">
-        <v>7.525480676559966</v>
+        <v>6.854979916434648</v>
       </c>
       <c r="E156">
-        <v>7.476261301235119</v>
+        <v>7.562689160035994</v>
       </c>
       <c r="F156">
-        <v>7.531742307629839</v>
+        <v>7.540931153656963</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6.901181094493207</v>
+        <v>7.497247704753178</v>
       </c>
       <c r="C157">
-        <v>7.475640223166111</v>
+        <v>7.464596108748442</v>
       </c>
       <c r="D157">
-        <v>7.494778706287839</v>
+        <v>6.840601254546372</v>
       </c>
       <c r="E157">
-        <v>7.445633772108214</v>
+        <v>7.530655368768898</v>
       </c>
       <c r="F157">
-        <v>7.498974057113019</v>
+        <v>7.508797004652195</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6.887586593481275</v>
+        <v>7.465672459557281</v>
       </c>
       <c r="C158">
-        <v>7.446106541505535</v>
+        <v>7.434286977386921</v>
       </c>
       <c r="D158">
-        <v>7.464061959256405</v>
+        <v>6.826237592570251</v>
       </c>
       <c r="E158">
-        <v>7.415006244073877</v>
+        <v>7.498619810829957</v>
       </c>
       <c r="F158">
-        <v>7.466219159484003</v>
+        <v>7.476675923391606</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6.873991880467528</v>
+        <v>7.434120712594827</v>
       </c>
       <c r="C159">
-        <v>7.416578369042628</v>
+        <v>7.404002798814568</v>
       </c>
       <c r="D159">
-        <v>7.433332385216977</v>
+        <v>6.811888932139555</v>
       </c>
       <c r="E159">
-        <v>7.384380978647613</v>
+        <v>7.466584655656002</v>
       </c>
       <c r="F159">
-        <v>7.433479925811288</v>
+        <v>7.444570021386011</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6.860396899137887</v>
+        <v>7.402594357344101</v>
       </c>
       <c r="C160">
-        <v>7.387057450846176</v>
+        <v>7.3737452736499</v>
       </c>
       <c r="D160">
-        <v>7.402591835114306</v>
+        <v>6.797555275023068</v>
       </c>
       <c r="E160">
-        <v>7.353760133095791</v>
+        <v>7.434551967742972</v>
       </c>
       <c r="F160">
-        <v>7.400758591654077</v>
+        <v>7.412481304237174</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6.846801596670325</v>
+        <v>7.371095206031564</v>
       </c>
       <c r="C161">
-        <v>7.357545453168054</v>
+        <v>7.343516012818336</v>
       </c>
       <c r="D161">
-        <v>7.371842074965617</v>
+        <v>6.783236623071556</v>
       </c>
       <c r="E161">
-        <v>7.323145775001891</v>
+        <v>7.402523726622059</v>
       </c>
       <c r="F161">
-        <v>7.368057285951159</v>
+        <v>7.380411679691801</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6.833205925511061</v>
+        <v>7.339624978886271</v>
       </c>
       <c r="C162">
-        <v>7.328043981980406</v>
+        <v>7.313316561636499</v>
       </c>
       <c r="D162">
-        <v>7.341084786838104</v>
+        <v>6.76893297819541</v>
       </c>
       <c r="E162">
-        <v>7.292539893875778</v>
+        <v>7.370501812748251</v>
       </c>
       <c r="F162">
-        <v>7.335378021857521</v>
+        <v>7.348362981534411</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6.819609844071581</v>
+        <v>7.308185322306182</v>
       </c>
       <c r="C163">
-        <v>7.298554570042722</v>
+        <v>7.283148389491187</v>
       </c>
       <c r="D163">
-        <v>7.310321568870208</v>
+        <v>6.754644342402136</v>
       </c>
       <c r="E163">
-        <v>7.261944387532917</v>
+        <v>7.338488025392209</v>
       </c>
       <c r="F163">
-        <v>7.302722747024927</v>
+        <v>7.316336947505829</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6.806013315811108</v>
+        <v>7.27677780443271</v>
       </c>
       <c r="C164">
-        <v>7.26907868163682</v>
+        <v>7.253012894147522</v>
       </c>
       <c r="D164">
-        <v>7.279553948304372</v>
+        <v>6.740370717752978</v>
       </c>
       <c r="E164">
-        <v>7.231361076542577</v>
+        <v>7.30648408452769</v>
       </c>
       <c r="F164">
-        <v>7.270093317933171</v>
+        <v>7.284335239040686</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6.792416306885098</v>
+        <v>7.24540391865239</v>
       </c>
       <c r="C165">
-        <v>7.239617727682974</v>
+        <v>7.2229114151273</v>
       </c>
       <c r="D165">
-        <v>7.248783373168786</v>
+        <v>6.726112106359643</v>
       </c>
       <c r="E165">
-        <v>7.200791712589708</v>
+        <v>7.274491624229983</v>
       </c>
       <c r="F165">
-        <v>7.237491489473797</v>
+        <v>7.252359447986208</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6.778818788330795</v>
+        <v>7.214065094548165</v>
       </c>
       <c r="C166">
-        <v>7.210173055197472</v>
+        <v>7.192845222920131</v>
       </c>
       <c r="D166">
-        <v>7.218011227396024</v>
+        <v>6.711868510421496</v>
       </c>
       <c r="E166">
-        <v>7.170237967393023</v>
+        <v>7.242512214138462</v>
       </c>
       <c r="F166">
-        <v>7.204918960864958</v>
+        <v>7.22041107955253</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6.765220737327659</v>
+        <v>7.182762689903556</v>
       </c>
       <c r="C167">
-        <v>7.180745950867287</v>
+        <v>7.16281553370886</v>
       </c>
       <c r="D167">
-        <v>7.187238826530354</v>
+        <v>6.697639932163638</v>
       </c>
       <c r="E167">
-        <v>7.139701446384953</v>
+        <v>7.210547348707568</v>
       </c>
       <c r="F167">
-        <v>7.172377352961412</v>
+        <v>7.188491581584021</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6.751622132555456</v>
+        <v>7.151498006026449</v>
       </c>
       <c r="C168">
-        <v>7.151337655394415</v>
+        <v>7.132823507912487</v>
       </c>
       <c r="D168">
-        <v>7.156467421654779</v>
+        <v>6.683426373856014</v>
       </c>
       <c r="E168">
-        <v>7.109183693900277</v>
+        <v>7.178598454824745</v>
       </c>
       <c r="F168">
-        <v>7.139868204816358</v>
+        <v>7.156602335644953</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6.738022957096429</v>
+        <v>7.120272282254836</v>
       </c>
       <c r="C169">
-        <v>7.121949353548828</v>
+        <v>7.102870248049856</v>
       </c>
       <c r="D169">
-        <v>7.125698207258163</v>
+        <v>6.66922783787891</v>
       </c>
       <c r="E169">
-        <v>7.078686183472198</v>
+        <v>7.146666901090876</v>
       </c>
       <c r="F169">
-        <v>7.107393003119289</v>
+        <v>7.124744652778171</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6.724423198450882</v>
+        <v>7.089086700813118</v>
       </c>
       <c r="C170">
-        <v>7.092582177421458</v>
+        <v>7.072956811924738</v>
       </c>
       <c r="D170">
-        <v>7.094932315973604</v>
+        <v>6.655044326576016</v>
       </c>
       <c r="E170">
-        <v>7.048210332123514</v>
+        <v>7.114753988220329</v>
       </c>
       <c r="F170">
-        <v>7.074953170204153</v>
+        <v>7.092919794410505</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6.710822847275002</v>
+        <v>7.057942393626826</v>
       </c>
       <c r="C171">
-        <v>7.063237218986197</v>
+        <v>7.043084205521195</v>
       </c>
       <c r="D171">
-        <v>7.064170830215711</v>
+        <v>6.640875842338082</v>
       </c>
       <c r="E171">
-        <v>7.01775750317574</v>
+        <v>7.082860966468013</v>
       </c>
       <c r="F171">
-        <v>7.042550047556145</v>
+        <v>7.061128962917701</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6.69722189704882</v>
+        <v>7.026840437171607</v>
       </c>
       <c r="C172">
-        <v>7.033915521333917</v>
+        <v>7.013253389265015</v>
       </c>
       <c r="D172">
-        <v>7.033414777904168</v>
+        <v>6.626722387574635</v>
       </c>
       <c r="E172">
-        <v>6.987328997452838</v>
+        <v>7.050989029359172</v>
       </c>
       <c r="F172">
-        <v>7.010184940308562</v>
+        <v>7.029373301811522</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6.683620344649919</v>
+        <v>6.995781864012151</v>
       </c>
       <c r="C173">
-        <v>7.004618081277268</v>
+        <v>6.983465283122767</v>
       </c>
       <c r="D173">
-        <v>7.002665137514332</v>
+        <v>6.612583964750556</v>
       </c>
       <c r="E173">
-        <v>6.956926067601673</v>
+        <v>7.019139315801807</v>
       </c>
       <c r="F173">
-        <v>6.977859094683217</v>
+        <v>6.997653912104512</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6.67001819023925</v>
+        <v>6.964767658053403</v>
       </c>
       <c r="C174">
-        <v>6.975345861002025</v>
+        <v>6.953720760448624</v>
       </c>
       <c r="D174">
-        <v>6.971922841422975</v>
+        <v>6.598460576449217</v>
       </c>
       <c r="E174">
-        <v>6.926549918749678</v>
+        <v>6.987312920708638</v>
       </c>
       <c r="F174">
-        <v>6.945573693395157</v>
+        <v>6.965971842565602</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6.656415436319866</v>
+        <v>6.933798759743195</v>
       </c>
       <c r="C175">
-        <v>6.946099779962566</v>
+        <v>6.924020660319179</v>
       </c>
       <c r="D175">
-        <v>6.941188771333082</v>
+        <v>6.584352225092494</v>
       </c>
       <c r="E175">
-        <v>6.896201700827403</v>
+        <v>6.955510887552318</v>
       </c>
       <c r="F175">
-        <v>6.913329880817333</v>
+        <v>6.934328093965132</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6.642812088148306</v>
+        <v>6.902876068997884</v>
       </c>
       <c r="C176">
-        <v>6.916880717182109</v>
+        <v>6.89436578253336</v>
       </c>
       <c r="D176">
-        <v>6.910463773617288</v>
+        <v>6.570258913170272</v>
       </c>
       <c r="E176">
-        <v>6.865882522834895</v>
+        <v>6.923734217786967</v>
       </c>
       <c r="F176">
-        <v>6.881128753564994</v>
+        <v>6.902723629604112</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6.629208154482342</v>
+        <v>6.872000440583502</v>
       </c>
       <c r="C177">
-        <v>6.88768952153837</v>
+        <v>6.864756889522174</v>
       </c>
       <c r="D177">
-        <v>6.879748654443869</v>
+        <v>6.556180643169151</v>
       </c>
       <c r="E177">
-        <v>6.835593451621112</v>
+        <v>6.891983871770813</v>
       </c>
       <c r="F177">
-        <v>6.848971352995952</v>
+        <v>6.871159366017176</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6.615603645818187</v>
+        <v>6.841172699142728</v>
       </c>
       <c r="C178">
-        <v>6.858527004628888</v>
+        <v>6.835194713572077</v>
       </c>
       <c r="D178">
-        <v>6.849044174331704</v>
+        <v>6.542117417770821</v>
       </c>
       <c r="E178">
-        <v>6.805335505777429</v>
+        <v>6.860260765615692</v>
       </c>
       <c r="F178">
-        <v>6.816858686354445</v>
+        <v>6.839636181562394</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6.601998574959027</v>
+        <v>6.810393634160794</v>
       </c>
       <c r="C179">
-        <v>6.829393942656005</v>
+        <v>6.805679951243624</v>
       </c>
       <c r="D179">
-        <v>6.818351055670278</v>
+        <v>6.52806923964437</v>
       </c>
       <c r="E179">
-        <v>6.775109668967539</v>
+        <v>6.82856578211184</v>
       </c>
       <c r="F179">
-        <v>6.784791720704961</v>
+        <v>6.808154920944691</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6.588392957338485</v>
+        <v>6.779663994929256</v>
       </c>
       <c r="C180">
-        <v>6.800291085683606</v>
+        <v>6.776213270674058</v>
       </c>
       <c r="D180">
-        <v>6.787669999682924</v>
+        <v>6.514036111271668</v>
       </c>
       <c r="E180">
-        <v>6.744916887491502</v>
+        <v>6.796899765264185</v>
       </c>
       <c r="F180">
-        <v>6.752771377774954</v>
+        <v>6.776716387130902</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6.574786810975344</v>
+        <v>6.74898449696428</v>
       </c>
       <c r="C181">
-        <v>6.771219151286328</v>
+        <v>6.746795311343924</v>
       </c>
       <c r="D181">
-        <v>6.757001673360764</v>
+        <v>6.5000180352331</v>
       </c>
       <c r="E181">
-        <v>6.714758065319262</v>
+        <v>6.765263524336215</v>
       </c>
       <c r="F181">
-        <v>6.720798547570148</v>
+        <v>6.745321353982829</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6.561180155221738</v>
+        <v>6.718355839149725</v>
       </c>
       <c r="C182">
-        <v>6.74217882618041</v>
+        <v>6.717426682474989</v>
       </c>
       <c r="D182">
-        <v>6.726346684226349</v>
+        <v>6.486015014107163</v>
       </c>
       <c r="E182">
-        <v>6.684634076849879</v>
+        <v>6.733657838699059</v>
       </c>
       <c r="F182">
-        <v>6.688874086801439</v>
+        <v>6.713970563682709</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6.547573011622076</v>
+        <v>6.687778690545302</v>
       </c>
       <c r="C183">
-        <v>6.713170774310554</v>
+        <v>6.688107970252764</v>
       </c>
       <c r="D183">
-        <v>6.695705633968076</v>
+        <v>6.472027050691307</v>
       </c>
       <c r="E183">
-        <v>6.654545763389726</v>
+        <v>6.702083452663372</v>
       </c>
       <c r="F183">
-        <v>6.656998812550916</v>
+        <v>6.682664722848374</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6.533965404325166</v>
+        <v>6.657253666920266</v>
       </c>
       <c r="C184">
-        <v>6.684195631361882</v>
+        <v>6.658839732192922</v>
       </c>
       <c r="D184">
-        <v>6.665079097345555</v>
+        <v>6.458054147580352</v>
       </c>
       <c r="E184">
-        <v>6.624493929078349</v>
+        <v>6.670541084874973</v>
       </c>
       <c r="F184">
-        <v>6.62517351429127</v>
+        <v>6.651404514696766</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6.5203573585394</v>
+        <v>6.626781379483485</v>
       </c>
       <c r="C185">
-        <v>6.655254006100064</v>
+        <v>6.629622502592807</v>
       </c>
       <c r="D185">
-        <v>6.634467617952787</v>
+        <v>6.444096307398147</v>
       </c>
       <c r="E185">
-        <v>6.594479353145146</v>
+        <v>6.639031423698174</v>
       </c>
       <c r="F185">
-        <v>6.593398953823074</v>
+        <v>6.620190593473621</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6.506748901404689</v>
+        <v>6.596362418146114</v>
       </c>
       <c r="C186">
-        <v>6.626346487534146</v>
+        <v>6.600456796989493</v>
       </c>
       <c r="D186">
-        <v>6.603871689865414</v>
+        <v>6.430153532797005</v>
       </c>
       <c r="E186">
-        <v>6.564502785471476</v>
+        <v>6.607555128357085</v>
       </c>
       <c r="F186">
-        <v>6.561675859117742</v>
+        <v>6.589023584394223</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6.493140061943407</v>
+        <v>6.565997345871337</v>
       </c>
       <c r="C187">
-        <v>6.597473640099298</v>
+        <v>6.571343110349813</v>
       </c>
       <c r="D187">
-        <v>6.573291811123127</v>
+        <v>6.41622582644105</v>
       </c>
       <c r="E187">
-        <v>6.534564943321837</v>
+        <v>6.576112838778468</v>
       </c>
       <c r="F187">
-        <v>6.530004933465166</v>
+        <v>6.557904092157551</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6.47953087081022</v>
+        <v>6.535686679781824</v>
       </c>
       <c r="C188">
-        <v>6.568636004776854</v>
+        <v>6.542281909098795</v>
       </c>
       <c r="D188">
-        <v>6.542728447381791</v>
+        <v>6.40231319107275</v>
       </c>
       <c r="E188">
-        <v>6.504666522952593</v>
+        <v>6.544705171418866</v>
       </c>
       <c r="F188">
-        <v>6.498386857094763</v>
+        <v>6.526832696047825</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6.465921359875062</v>
+        <v>6.505430944134044</v>
       </c>
       <c r="C189">
-        <v>6.539834105426842</v>
+        <v>6.51327364438555</v>
       </c>
       <c r="D189">
-        <v>6.512182037278582</v>
+        <v>6.388415629338474</v>
       </c>
       <c r="E189">
-        <v>6.474808194576887</v>
+        <v>6.513332714711509</v>
       </c>
       <c r="F189">
-        <v>6.466822281147421</v>
+        <v>6.495809951655039</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6.452311562569128</v>
+        <v>6.47523063452795</v>
       </c>
       <c r="C190">
-        <v>6.511068444543925</v>
+        <v>6.484318757304225</v>
       </c>
       <c r="D190">
-        <v>6.481652992298538</v>
+        <v>6.374533143924666</v>
       </c>
       <c r="E190">
-        <v>6.444990600213904</v>
+        <v>6.481996033781988</v>
       </c>
       <c r="F190">
-        <v>6.43531183475258</v>
+        <v>6.464836396569149</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6.43870151410471</v>
+        <v>6.445086223845466</v>
       </c>
       <c r="C191">
-        <v>6.482339504166541</v>
+        <v>6.455417671058139</v>
       </c>
       <c r="D191">
-        <v>6.451141714345372</v>
+        <v>6.360665737520133</v>
       </c>
       <c r="E191">
-        <v>6.415214363610235</v>
+        <v>6.450695686075442</v>
       </c>
       <c r="F191">
-        <v>6.403856127847437</v>
+        <v>6.433912545880344</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6.425091250513185</v>
+        <v>6.414998160403263</v>
       </c>
       <c r="C192">
-        <v>6.453647751553255</v>
+        <v>6.426570775768658</v>
       </c>
       <c r="D192">
-        <v>6.42064858221535</v>
+        <v>6.346813412797971</v>
       </c>
       <c r="E192">
-        <v>6.385480085759681</v>
+        <v>6.419432208386259</v>
       </c>
       <c r="F192">
-        <v>6.372455745828623</v>
+        <v>6.40303889587848</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6.411480809195059</v>
+        <v>6.384966886243499</v>
       </c>
       <c r="C193">
-        <v>6.424993635390829</v>
+        <v>6.397778452514486</v>
       </c>
       <c r="D193">
-        <v>6.39017395389257</v>
+        <v>6.332976172414555</v>
       </c>
       <c r="E193">
-        <v>6.355788343268817</v>
+        <v>6.388206105177649</v>
       </c>
       <c r="F193">
-        <v>6.341111254497964</v>
+        <v>6.372215926736241</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6.39787022902002</v>
+        <v>6.354992823451887</v>
       </c>
       <c r="C194">
-        <v>6.396377586552663</v>
+        <v>6.369041079805846</v>
       </c>
       <c r="D194">
-        <v>6.359718171708939</v>
+        <v>6.319154019057103</v>
       </c>
       <c r="E194">
-        <v>6.326139696829035</v>
+        <v>6.35701786521642</v>
       </c>
       <c r="F194">
-        <v>6.309823203450778</v>
+        <v>6.3414440986055</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6.384259549870233</v>
+        <v>6.325076376920373</v>
       </c>
       <c r="C195">
-        <v>6.36780002314227</v>
+        <v>6.340359017741032</v>
       </c>
       <c r="D195">
-        <v>6.329281563231675</v>
+        <v>6.3053469553919</v>
       </c>
       <c r="E195">
-        <v>6.296534687278899</v>
+        <v>6.325867976965364</v>
       </c>
       <c r="F195">
-        <v>6.27859212152821</v>
+        <v>6.310723857327916</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6.370648812574515</v>
+        <v>6.295217938139424</v>
       </c>
       <c r="C196">
-        <v>6.339261347146447</v>
+        <v>6.311732600123956</v>
       </c>
       <c r="D196">
-        <v>6.298864440517923</v>
+        <v>6.291554984077567</v>
       </c>
       <c r="E196">
-        <v>6.26697383441236</v>
+        <v>6.294756908450883</v>
       </c>
       <c r="F196">
-        <v>6.247418520272427</v>
+        <v>6.280055633705822</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6.357038059117642</v>
+        <v>6.265417886841839</v>
       </c>
       <c r="C197">
-        <v>6.310761945065602</v>
+        <v>6.283162152824576</v>
       </c>
       <c r="D197">
-        <v>6.268467085052479</v>
+        <v>6.277778107893738</v>
       </c>
       <c r="E197">
-        <v>6.237457644160203</v>
+        <v>6.263685099806188</v>
       </c>
       <c r="F197">
-        <v>6.216302897667812</v>
+        <v>6.249439838679244</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6.343427332713852</v>
+        <v>6.235676590257274</v>
       </c>
       <c r="C198">
-        <v>6.282302192365692</v>
+        <v>6.254647998070036</v>
       </c>
       <c r="D198">
-        <v>6.238089781510817</v>
+        <v>6.264016329521201</v>
       </c>
       <c r="E198">
-        <v>6.20798660515403</v>
+        <v>6.232652983082654</v>
       </c>
       <c r="F198">
-        <v>6.185245734127997</v>
+        <v>6.218876875494564</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6.329816677168344</v>
+        <v>6.205994388460455</v>
       </c>
       <c r="C199">
-        <v>6.253882450554978</v>
+        <v>6.226190442849798</v>
       </c>
       <c r="D199">
-        <v>6.207732795701135</v>
+        <v>6.250269651586931</v>
       </c>
       <c r="E199">
-        <v>6.178561187862085</v>
+        <v>6.201660985025328</v>
       </c>
       <c r="F199">
-        <v>6.154247494887887</v>
+        <v>6.188367133679504</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6.316206137265311</v>
+        <v>6.176371625431718</v>
       </c>
       <c r="C200">
-        <v>6.225503067710824</v>
+        <v>6.197789777116188</v>
       </c>
       <c r="D200">
-        <v>6.177396379095835</v>
+        <v>6.236538076745304</v>
       </c>
       <c r="E200">
-        <v>6.149181850721201</v>
+        <v>6.17070951666394</v>
       </c>
       <c r="F200">
-        <v>6.123308633856687</v>
+        <v>6.157910991810888</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6.302595758913441</v>
+        <v>6.146808630002216</v>
       </c>
       <c r="C201">
-        <v>6.19716438237861</v>
+        <v>6.169446282836193</v>
       </c>
       <c r="D201">
-        <v>6.147080766434089</v>
+        <v>6.222821607638004</v>
       </c>
       <c r="E201">
-        <v>6.119849036696833</v>
+        <v>6.139798968993381</v>
       </c>
       <c r="F201">
-        <v>6.092429589995466</v>
+        <v>6.127508806335046</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6.288985588594833</v>
+        <v>6.117305719338972</v>
       </c>
       <c r="C202">
-        <v>6.168866720299993</v>
+        <v>6.141160236091973</v>
       </c>
       <c r="D202">
-        <v>6.116786187539721</v>
+        <v>6.209120246892155</v>
       </c>
       <c r="E202">
-        <v>6.090563171222976</v>
+        <v>6.108929727695664</v>
       </c>
       <c r="F202">
-        <v>6.061610788907672</v>
+        <v>6.097160933534714</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6.275375673561141</v>
+        <v>6.087863195811466</v>
       </c>
       <c r="C203">
-        <v>6.140610394808362</v>
+        <v>6.112931902086271</v>
       </c>
       <c r="D203">
-        <v>6.086512859201083</v>
+        <v>6.19543399711844</v>
       </c>
       <c r="E203">
-        <v>6.061324672255307</v>
+        <v>6.078102170027073</v>
       </c>
       <c r="F203">
-        <v>6.030852646859141</v>
+        <v>6.066867720356861</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6.261766061899333</v>
+        <v>6.0584813590485</v>
       </c>
       <c r="C204">
-        <v>6.112395713080397</v>
+        <v>6.084761533777765</v>
       </c>
       <c r="D204">
-        <v>6.056260982546018</v>
+        <v>6.181762861114978</v>
       </c>
       <c r="E204">
-        <v>6.032133944661121</v>
+        <v>6.047316662294778</v>
       </c>
       <c r="F204">
-        <v>6.000155567402059</v>
+        <v>6.036629504426601</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6.248156802492486</v>
+        <v>6.029160497880946</v>
       </c>
       <c r="C205">
-        <v>6.084222972295423</v>
+        <v>6.056649377411824</v>
       </c>
       <c r="D205">
-        <v>6.026030748609967</v>
+        <v>6.168106841717782</v>
       </c>
       <c r="E205">
-        <v>6.002991382732698</v>
+        <v>6.016573559754018</v>
       </c>
       <c r="F205">
-        <v>5.969519942385334</v>
+        <v>6.00644660120326</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6.234547944680195</v>
+        <v>5.999900888742713</v>
       </c>
       <c r="C206">
-        <v>6.05609246156815</v>
+        <v>6.028595673823308</v>
       </c>
       <c r="D206">
-        <v>5.995822343079888</v>
+        <v>6.15446594136619</v>
       </c>
       <c r="E206">
-        <v>5.97389736077684</v>
+        <v>5.985873211653291</v>
       </c>
       <c r="F206">
-        <v>5.938946155901291</v>
+        <v>5.976319321044421</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6.220939538482829</v>
+        <v>5.970702798324822</v>
       </c>
       <c r="C207">
-        <v>6.028004451996646</v>
+        <v>6.000600655835863</v>
       </c>
       <c r="D207">
-        <v>5.965635940534022</v>
+        <v>6.140840162679733</v>
       </c>
       <c r="E207">
-        <v>5.944852249871954</v>
+        <v>5.9552159598601</v>
       </c>
       <c r="F207">
-        <v>5.908434581270086</v>
+        <v>5.946247977418561</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6.207331634749803</v>
+        <v>5.941566490908193</v>
       </c>
       <c r="C208">
-        <v>5.99995921686831</v>
+        <v>5.972664544788398</v>
       </c>
       <c r="D208">
-        <v>5.935471703391466</v>
+        <v>6.127229508264035</v>
       </c>
       <c r="E208">
-        <v>5.915856414290254</v>
+        <v>5.924602139509173</v>
       </c>
       <c r="F208">
-        <v>5.877985581594651</v>
+        <v>5.91623287151423</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6.193724284633985</v>
+        <v>5.91249222137585</v>
       </c>
       <c r="C209">
-        <v>5.971957021554296</v>
+        <v>5.94478755740678</v>
       </c>
       <c r="D209">
-        <v>5.905329788891694</v>
+        <v>6.11363398070946</v>
       </c>
       <c r="E209">
-        <v>5.886910208134702</v>
+        <v>5.894032066097409</v>
       </c>
       <c r="F209">
-        <v>5.847599513520947</v>
+        <v>5.886274292015629</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6.18011753988571</v>
+        <v>5.883480235246139</v>
       </c>
       <c r="C210">
-        <v>5.943998124283833</v>
+        <v>5.916969907029807</v>
       </c>
       <c r="D210">
-        <v>5.875210345932873</v>
+        <v>6.100053582589772</v>
       </c>
       <c r="E210">
-        <v>5.858013971923921</v>
+        <v>5.863506061908197</v>
       </c>
       <c r="F210">
-        <v>5.817276724601895</v>
+        <v>5.856372513949244</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6.166511452852451</v>
+        <v>5.854530773347199</v>
       </c>
       <c r="C211">
-        <v>5.916082771855844</v>
+        <v>5.88921180011958</v>
       </c>
       <c r="D211">
-        <v>5.845113515137168</v>
+        <v>6.086488316554076</v>
       </c>
       <c r="E211">
-        <v>5.829168024408133</v>
+        <v>5.833024439967187</v>
       </c>
       <c r="F211">
-        <v>5.787017553541546</v>
+        <v>5.826527820103871</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6.152906076366205</v>
+        <v>5.825644070640379</v>
       </c>
       <c r="C212">
-        <v>5.888211194081657</v>
+        <v>5.861513432468658</v>
       </c>
       <c r="D212">
-        <v>5.815039425763638</v>
+        <v>6.072938185657955</v>
       </c>
       <c r="E212">
-        <v>5.800372699458552</v>
+        <v>5.802587507363149</v>
       </c>
       <c r="F212">
-        <v>5.756822333638878</v>
+        <v>5.796740481803927</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6.139301463603062</v>
+        <v>5.796820355817036</v>
       </c>
       <c r="C213">
-        <v>5.860383634238333</v>
+        <v>5.833874996655291</v>
       </c>
       <c r="D213">
-        <v>5.784988205468649</v>
+        <v>6.059403192194136</v>
       </c>
       <c r="E213">
-        <v>5.771628315241935</v>
+        <v>5.772195560375968</v>
       </c>
       <c r="F213">
-        <v>5.726691390541025</v>
+        <v>5.767010763695784</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6.125697668211858</v>
+        <v>5.768059847471663</v>
       </c>
       <c r="C214">
-        <v>5.83260032280229</v>
+        <v>5.80629668304802</v>
       </c>
       <c r="D214">
-        <v>5.754959973761022</v>
+        <v>6.045883338761187</v>
       </c>
       <c r="E214">
-        <v>5.742935183489323</v>
+        <v>5.741848896804957</v>
       </c>
       <c r="F214">
-        <v>5.696625042239331</v>
+        <v>5.737338918020936</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6.11209474438587</v>
+        <v>5.739362764275276</v>
       </c>
       <c r="C215">
-        <v>5.804861485409018</v>
+        <v>5.778778675937707</v>
       </c>
       <c r="D215">
-        <v>5.724954842742795</v>
+        <v>6.03237862794901</v>
       </c>
       <c r="E215">
-        <v>5.714293593906015</v>
+        <v>5.711547807992199</v>
       </c>
       <c r="F215">
-        <v>5.666623602243278</v>
+        <v>5.70772520124631</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6.09849274651778</v>
+        <v>5.710729318322317</v>
       </c>
       <c r="C216">
-        <v>5.777167330651293</v>
+        <v>5.751321151334407</v>
       </c>
       <c r="D216">
-        <v>5.694972917884678</v>
+        <v>6.018889062338356</v>
       </c>
       <c r="E216">
-        <v>5.685703844060505</v>
+        <v>5.681292580692229</v>
       </c>
       <c r="F216">
-        <v>5.636687377626796</v>
+        <v>5.678169861784788</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6.084891729398244</v>
+        <v>5.682159716310464</v>
       </c>
       <c r="C217">
-        <v>5.749518071863513</v>
+        <v>5.723924282443418</v>
       </c>
       <c r="D217">
-        <v>5.665014301267967</v>
+        <v>6.005414644500335</v>
       </c>
       <c r="E217">
-        <v>5.65716622390226</v>
+        <v>5.651083490259776</v>
       </c>
       <c r="F217">
-        <v>5.606816668851264</v>
+        <v>5.648673143747727</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6.071291748253231</v>
+        <v>5.653654159261193</v>
       </c>
       <c r="C218">
-        <v>5.721913918713184</v>
+        <v>5.696588240292636</v>
       </c>
       <c r="D218">
-        <v>5.63507908908893</v>
+        <v>5.991955376995918</v>
       </c>
       <c r="E218">
-        <v>5.628681015965601</v>
+        <v>5.620920817034758</v>
       </c>
       <c r="F218">
-        <v>5.577011772688671</v>
+        <v>5.619235285553549</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6.05769285856671</v>
+        <v>5.625212846401112</v>
       </c>
       <c r="C219">
-        <v>5.694355074451726</v>
+        <v>5.669313191050625</v>
       </c>
       <c r="D219">
-        <v>5.605167369140792</v>
+        <v>5.978511262708274</v>
       </c>
       <c r="E219">
-        <v>5.600248494298885</v>
+        <v>5.590804834895095</v>
       </c>
       <c r="F219">
-        <v>5.547272980506008</v>
+        <v>5.58985652393124</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6.044095116074183</v>
+        <v>5.596835972447192</v>
       </c>
       <c r="C220">
-        <v>5.666841736743148</v>
+        <v>5.642099295041924</v>
       </c>
       <c r="D220">
-        <v>5.575279226649246</v>
+        <v>5.965082304073758</v>
       </c>
       <c r="E220">
-        <v>5.571868924332111</v>
+        <v>5.560735814278268</v>
       </c>
       <c r="F220">
-        <v>5.517600577962886</v>
+        <v>5.560537091832652</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6.030498576829104</v>
+        <v>5.568523725969691</v>
       </c>
       <c r="C221">
-        <v>5.639374094194664</v>
+        <v>5.614946710028078</v>
       </c>
       <c r="D221">
-        <v>5.545414742772812</v>
+        <v>5.95166850365558</v>
       </c>
       <c r="E221">
-        <v>5.543542573397086</v>
+        <v>5.530714021091454</v>
       </c>
       <c r="F221">
-        <v>5.487994847705261</v>
+        <v>5.531277219385564</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6.016903297221295</v>
+        <v>5.540276292782154</v>
       </c>
       <c r="C222">
-        <v>5.61195233928154</v>
+        <v>5.587855591581903</v>
       </c>
       <c r="D222">
-        <v>5.515573993732533</v>
+        <v>5.938269864035201</v>
       </c>
       <c r="E222">
-        <v>5.515269701207013</v>
+        <v>5.500739720700806</v>
       </c>
       <c r="F222">
-        <v>5.458456067848412</v>
+        <v>5.502077126252739</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6.003309333758931</v>
+        <v>5.512093856855068</v>
       </c>
       <c r="C223">
-        <v>5.584576658026867</v>
+        <v>5.560826091671744</v>
       </c>
       <c r="D223">
-        <v>5.485757048973571</v>
+        <v>5.924886387790306</v>
       </c>
       <c r="E223">
-        <v>5.487050563075756</v>
+        <v>5.470813175465191</v>
       </c>
       <c r="F223">
-        <v>5.428984511608295</v>
+        <v>5.472937034023355</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5.989716743200529</v>
+        <v>5.483976598428226</v>
       </c>
       <c r="C224">
-        <v>5.557247233181719</v>
+        <v>5.533858357621874</v>
       </c>
       <c r="D224">
-        <v>5.455963977005249</v>
+        <v>5.911518077494826</v>
       </c>
       <c r="E224">
-        <v>5.458885408186381</v>
+        <v>5.440934644776409</v>
       </c>
       <c r="F224">
-        <v>5.399580449737938</v>
+        <v>5.443857163456697</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5.976125582612392</v>
+        <v>5.455924692322784</v>
       </c>
       <c r="C225">
-        <v>5.529964243424099</v>
+        <v>5.506952534786334</v>
       </c>
       <c r="D225">
-        <v>5.426194841677092</v>
+        <v>5.898164935718952</v>
       </c>
       <c r="E225">
-        <v>5.430774484169632</v>
+        <v>5.411104383261675</v>
       </c>
       <c r="F225">
-        <v>5.370244149208762</v>
+        <v>5.414837731302156</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5.962535909156368</v>
+        <v>5.427938313167613</v>
       </c>
       <c r="C226">
-        <v>5.50272786526723</v>
+        <v>5.480108766806578</v>
       </c>
       <c r="D226">
-        <v>5.396449702524113</v>
+        <v>5.884826965056552</v>
       </c>
       <c r="E226">
-        <v>5.402718034526228</v>
+        <v>5.381322647727566</v>
       </c>
       <c r="F226">
-        <v>5.340975872808396</v>
+        <v>5.385878950441699</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5.94894778017531</v>
+        <v>5.400017632342651</v>
       </c>
       <c r="C227">
-        <v>5.475538273048578</v>
+        <v>5.45332719452929</v>
       </c>
       <c r="D227">
-        <v>5.366728614342525</v>
+        <v>5.871504168077616</v>
       </c>
       <c r="E227">
-        <v>5.374716299589503</v>
+        <v>5.351589692035044</v>
       </c>
       <c r="F227">
-        <v>5.311775881316395</v>
+        <v>5.356981031268693</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5.935361253210588</v>
+        <v>5.372162818363628</v>
       </c>
       <c r="C228">
-        <v>5.448395638595388</v>
+        <v>5.426607954573804</v>
       </c>
       <c r="D228">
-        <v>5.337031630825956</v>
+        <v>5.858196547337341</v>
       </c>
       <c r="E228">
-        <v>5.346769512033187</v>
+        <v>5.32190576816955</v>
       </c>
       <c r="F228">
-        <v>5.282644432370342</v>
+        <v>5.328144184432694</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5.921776385981523</v>
+        <v>5.34437403560019</v>
       </c>
       <c r="C229">
-        <v>5.421300130439312</v>
+        <v>5.39995118227386</v>
       </c>
       <c r="D229">
-        <v>5.307358801844423</v>
+        <v>5.844904105398957</v>
       </c>
       <c r="E229">
-        <v>5.318877900006028</v>
+        <v>5.292271126005092</v>
       </c>
       <c r="F229">
-        <v>5.253581780052737</v>
+        <v>5.29936861801218</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5.908193236270112</v>
+        <v>5.316651448600108</v>
       </c>
       <c r="C230">
-        <v>5.394251907791991</v>
+        <v>5.373357011835187</v>
       </c>
       <c r="D230">
-        <v>5.277710173353788</v>
+        <v>5.831626844823095</v>
       </c>
       <c r="E230">
-        <v>5.291041695243174</v>
+        <v>5.262686016079587</v>
       </c>
       <c r="F230">
-        <v>5.224588176818381</v>
+        <v>5.27065453698877</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5.894611861999062</v>
+        <v>5.288995219072583</v>
       </c>
       <c r="C231">
-        <v>5.36725113772969</v>
+        <v>5.346825575106616</v>
       </c>
       <c r="D231">
-        <v>5.248085788821498</v>
+        <v>5.818364768167871</v>
       </c>
       <c r="E231">
-        <v>5.263261123860324</v>
+        <v>5.233150687632341</v>
       </c>
       <c r="F231">
-        <v>5.195663872524788</v>
+        <v>5.242002141013356</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5.881032321284403</v>
+        <v>5.261405506200079</v>
       </c>
       <c r="C232">
-        <v>5.340297981781554</v>
+        <v>5.320357000282027</v>
       </c>
       <c r="D232">
-        <v>5.218485689636341</v>
+        <v>5.805117877988955</v>
       </c>
       <c r="E232">
-        <v>5.235536409343649</v>
+        <v>5.203665387965846</v>
       </c>
       <c r="F232">
-        <v>5.166809114015638</v>
+        <v>5.21341163416629</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5.867454672243575</v>
+        <v>5.233882467113098</v>
       </c>
       <c r="C233">
-        <v>5.31339259975547</v>
+        <v>5.293951414662617</v>
       </c>
       <c r="D233">
-        <v>5.188909914476437</v>
+        <v>5.791886176824839</v>
       </c>
       <c r="E233">
-        <v>5.207867769176476</v>
+        <v>5.17423036268831</v>
       </c>
       <c r="F233">
-        <v>5.138024146832757</v>
+        <v>5.184883216950293</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5.853878973102998</v>
+        <v>5.206426258083625</v>
       </c>
       <c r="C234">
-        <v>5.286535148109461</v>
+        <v>5.267608944719256</v>
       </c>
       <c r="D234">
-        <v>5.159358495928709</v>
+        <v>5.778669667203101</v>
       </c>
       <c r="E234">
-        <v>5.180255423075882</v>
+        <v>5.144845859532562</v>
       </c>
       <c r="F234">
-        <v>5.109309214380618</v>
+        <v>5.156417088632212</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5.840305282248222</v>
+        <v>5.179037033534815</v>
       </c>
       <c r="C235">
-        <v>5.259725782404773</v>
+        <v>5.24132971495157</v>
       </c>
       <c r="D235">
-        <v>5.129831468723534</v>
+        <v>5.76546835168301</v>
       </c>
       <c r="E235">
-        <v>5.152699587178609</v>
+        <v>5.115512125002259</v>
       </c>
       <c r="F235">
-        <v>5.08066455751575</v>
+        <v>5.128013446688451</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5.826733658107527</v>
+        <v>5.151714943673261</v>
       </c>
       <c r="C236">
-        <v>5.232964657945231</v>
+        <v>5.215113847071352</v>
       </c>
       <c r="D236">
-        <v>5.100328864290129</v>
+        <v>5.75228223280395</v>
       </c>
       <c r="E236">
-        <v>5.12520047581827</v>
+        <v>5.086229404691021</v>
       </c>
       <c r="F236">
-        <v>5.052090416068254</v>
+        <v>5.099672488599277</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5.813164159085345</v>
+        <v>5.124460139750887</v>
       </c>
       <c r="C237">
-        <v>5.206251928218468</v>
+        <v>5.188961462025014</v>
       </c>
       <c r="D237">
-        <v>5.070850712258752</v>
+        <v>5.739111313102233</v>
       </c>
       <c r="E237">
-        <v>5.097758297748942</v>
+        <v>5.056997943961976</v>
       </c>
       <c r="F237">
-        <v>5.023587028103946</v>
+        <v>5.07139441079206</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5.799596843646937</v>
+        <v>5.097272771930726</v>
       </c>
       <c r="C238">
-        <v>5.179587745196329</v>
+        <v>5.162872680009143</v>
       </c>
       <c r="D238">
-        <v>5.041397040708095</v>
+        <v>5.725955595111126</v>
       </c>
       <c r="E238">
-        <v>5.070373260655218</v>
+        <v>5.027817989294981</v>
       </c>
       <c r="F238">
-        <v>4.995154629600261</v>
+        <v>5.043179409119713</v>
       </c>
     </row>
   </sheetData>
